--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_1_40.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_1_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3619158.567203794</v>
+        <v>3618574.838914538</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>162246.8333859487</v>
+        <v>162246.833385949</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058544</v>
+        <v>632041.4518058536</v>
       </c>
     </row>
     <row r="9">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.199249640013306</v>
+        <v>3.19924964001342</v>
       </c>
       <c r="G2" t="n">
-        <v>3.199249640013306</v>
+        <v>3.19924964001342</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>3.199249640013306</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>3.199249640013306</v>
+        <v>2.817899082923819</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>3.19924964001342</v>
       </c>
       <c r="W3" t="n">
-        <v>3.199249640013306</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>2.81789908292372</v>
+        <v>3.19924964001342</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>3.19924964001342</v>
       </c>
     </row>
     <row r="4">
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="F6" t="n">
-        <v>2.817899082923868</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>3.199249640013477</v>
       </c>
       <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.817899082923868</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.199249640013477</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3.376898027766035</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G8" t="n">
         <v>3.516869431124803</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.1776483877525582</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>3.097658594934726</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="T9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>3.516869431124803</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>3.097658594934726</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>58.64146416747963</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>150.6302400866807</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>171.9036547671382</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.15873454468806</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>28.3698086740479</v>
+        <v>28.36980867404781</v>
       </c>
       <c r="T11" t="n">
-        <v>22.97285702238995</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>50.57678702701881</v>
+        <v>50.57678702701872</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>121.3045263146539</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>138.3212065312688</v>
       </c>
       <c r="X11" t="n">
         <v>160.2074570002081</v>
       </c>
       <c r="Y11" t="n">
-        <v>182.7103101239519</v>
+        <v>68.13104769304385</v>
       </c>
     </row>
     <row r="12">
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>148.7546555287771</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>53.42477458325159</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>8.152464119732418</v>
       </c>
       <c r="R12" t="n">
         <v>135.3438478178128</v>
       </c>
       <c r="S12" t="n">
-        <v>177.1784669406204</v>
+        <v>54.50479827876152</v>
       </c>
       <c r="T12" t="n">
-        <v>15.43617911258933</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="U12" t="n">
-        <v>37.65347345595314</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="V12" t="n">
-        <v>41.07366362090426</v>
+        <v>41.07366362090417</v>
       </c>
       <c r="W12" t="n">
-        <v>67.1293262825136</v>
+        <v>67.12932628251352</v>
       </c>
       <c r="X12" t="n">
-        <v>17.73765714497262</v>
+        <v>17.73765714497253</v>
       </c>
       <c r="Y12" t="n">
-        <v>23.80902883952763</v>
+        <v>23.80902883952754</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>4.233588421511572</v>
+        <v>4.233588421511486</v>
       </c>
       <c r="S13" t="n">
-        <v>36.00963739562914</v>
+        <v>36.00963739562906</v>
       </c>
       <c r="T13" t="n">
-        <v>24.22230514761161</v>
+        <v>24.22230514761152</v>
       </c>
       <c r="U13" t="n">
-        <v>89.08175929949468</v>
+        <v>89.08175929949459</v>
       </c>
       <c r="V13" t="n">
-        <v>45.53375788995191</v>
+        <v>45.53375788995183</v>
       </c>
       <c r="W13" t="n">
-        <v>90.73544979483734</v>
+        <v>90.73544979483725</v>
       </c>
       <c r="X13" t="n">
-        <v>22.34419811374454</v>
+        <v>22.34419811374445</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.56601551967043</v>
+        <v>17.56601551967034</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>58.21890543274161</v>
+        <v>138.1969023477291</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>171.903654767138</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>184.8951436113489</v>
+        <v>26.70945312037802</v>
       </c>
       <c r="H14" t="n">
-        <v>147.6385268907356</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.15873454468806</v>
+        <v>42.15873454468789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>28.3698086740479</v>
+        <v>28.36980867404773</v>
       </c>
       <c r="T14" t="n">
-        <v>22.97285702238995</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.57678702701881</v>
+        <v>50.57678702701864</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>121.3045263146539</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>138.3212065312687</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>182.7103101239519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>40.66035366233636</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>107.7094663750393</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>53.42477458325159</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>58.34988462083849</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="U15" t="n">
-        <v>37.65347345595314</v>
+        <v>37.65347345595297</v>
       </c>
       <c r="V15" t="n">
-        <v>41.07366362090426</v>
+        <v>41.07366362090409</v>
       </c>
       <c r="W15" t="n">
-        <v>67.1293262825136</v>
+        <v>67.12932628251343</v>
       </c>
       <c r="X15" t="n">
-        <v>184.8951436113489</v>
+        <v>17.73765714497245</v>
       </c>
       <c r="Y15" t="n">
-        <v>23.80902883952763</v>
+        <v>184.8951436113487</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>4.233588421511572</v>
+        <v>4.233588421511401</v>
       </c>
       <c r="S16" t="n">
-        <v>36.00963739562914</v>
+        <v>36.00963739562897</v>
       </c>
       <c r="T16" t="n">
-        <v>24.22230514761161</v>
+        <v>24.22230514761144</v>
       </c>
       <c r="U16" t="n">
-        <v>89.08175929949468</v>
+        <v>89.08175929949451</v>
       </c>
       <c r="V16" t="n">
-        <v>45.53375788995191</v>
+        <v>45.53375788995174</v>
       </c>
       <c r="W16" t="n">
-        <v>90.73544979483734</v>
+        <v>90.73544979483717</v>
       </c>
       <c r="X16" t="n">
-        <v>22.34419811374454</v>
+        <v>22.34419811374437</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.56601551967043</v>
+        <v>17.56601551967026</v>
       </c>
     </row>
     <row r="17">
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>75.34930788394644</v>
+        <v>75.34930788394587</v>
       </c>
       <c r="C17" t="n">
-        <v>51.46756488729136</v>
+        <v>51.46756488729137</v>
       </c>
       <c r="D17" t="n">
         <v>39.03422714833982</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>184.8951436113489</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>53.42477458325159</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>135.3438478178128</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>184.8951436113489</v>
+        <v>162.8556424928759</v>
       </c>
       <c r="T18" t="n">
-        <v>158.9821637031598</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>104.461317146126</v>
       </c>
       <c r="G20" t="n">
-        <v>120.1190258295991</v>
+        <v>120.1190258295992</v>
       </c>
       <c r="H20" t="n">
-        <v>48.47585169134607</v>
+        <v>48.47585169134609</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2160,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>27.51179467506289</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>27.51179467506248</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>135.3438478178128</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="T21" t="n">
-        <v>184.8951436113489</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="W21" t="n">
-        <v>184.8951436113489</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>184.8951436113489</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>104.461317146126</v>
       </c>
       <c r="G23" t="n">
-        <v>120.1190258295991</v>
+        <v>120.1190258295992</v>
       </c>
       <c r="H23" t="n">
         <v>48.47585169134607</v>
@@ -2394,70 +2394,70 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>98.88636250146551</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>8.152464119732418</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
         <v>184.8951436113487</v>
       </c>
-      <c r="D24" t="n">
-        <v>159.1723150765785</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>148.7546555287771</v>
-      </c>
-      <c r="H24" t="n">
-        <v>125.832596608752</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>154.7031783731434</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>204.3785430313831</v>
       </c>
       <c r="H26" t="n">
-        <v>132.7353688931301</v>
+        <v>132.73536889313</v>
       </c>
       <c r="I26" t="n">
         <v>27.25557654708257</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>13.4666506764424</v>
+        <v>13.46665067644241</v>
       </c>
       <c r="T26" t="n">
-        <v>8.069699024784462</v>
+        <v>8.069699024784455</v>
       </c>
       <c r="U26" t="n">
-        <v>35.67362902941331</v>
+        <v>35.67362902941332</v>
       </c>
       <c r="V26" t="n">
         <v>106.4013683170485</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.5330211149838348</v>
+        <v>215.0114364070873</v>
       </c>
       <c r="U27" t="n">
-        <v>216.9922832786521</v>
+        <v>22.75031545834765</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>26.17050562329877</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>58.94998458084656</v>
       </c>
       <c r="X27" t="n">
         <v>2.834499147367126</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.905870841922138</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2798,7 +2798,7 @@
         <v>123.2937443501239</v>
       </c>
       <c r="E29" t="n">
-        <v>157.0004967695327</v>
+        <v>157.0004967695328</v>
       </c>
       <c r="F29" t="n">
         <v>188.7208343479101</v>
@@ -2810,7 +2810,7 @@
         <v>132.7353688931301</v>
       </c>
       <c r="I29" t="n">
-        <v>27.25557654708263</v>
+        <v>27.25557654708265</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>13.46665067644246</v>
+        <v>13.46665067644249</v>
       </c>
       <c r="T29" t="n">
-        <v>8.069699024784519</v>
+        <v>8.069699024784548</v>
       </c>
       <c r="U29" t="n">
-        <v>35.67362902941338</v>
+        <v>35.67362902941341</v>
       </c>
       <c r="V29" t="n">
         <v>106.4013683170486</v>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>167.2727232181213</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,13 +2877,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7546555287771</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>135.3438478178128</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.777485242489</v>
       </c>
       <c r="T30" t="n">
-        <v>0.5330211149838916</v>
+        <v>0.53302111498392</v>
       </c>
       <c r="U30" t="n">
-        <v>22.75031545834771</v>
+        <v>80.86977420833766</v>
       </c>
       <c r="V30" t="n">
-        <v>26.17050562329882</v>
+        <v>26.17050562329885</v>
       </c>
       <c r="W30" t="n">
-        <v>52.22616828490817</v>
+        <v>52.2261682849082</v>
       </c>
       <c r="X30" t="n">
-        <v>2.834499147367183</v>
+        <v>2.834499147367211</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.905870841922194</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.10647939802371</v>
+        <v>21.10647939802374</v>
       </c>
       <c r="T31" t="n">
-        <v>9.319147150006174</v>
+        <v>9.319147150006202</v>
       </c>
       <c r="U31" t="n">
-        <v>74.17860130188924</v>
+        <v>74.17860130188927</v>
       </c>
       <c r="V31" t="n">
-        <v>30.63059989234648</v>
+        <v>30.63059989234651</v>
       </c>
       <c r="W31" t="n">
-        <v>75.8322917972319</v>
+        <v>75.83229179723193</v>
       </c>
       <c r="X31" t="n">
-        <v>7.441040116139106</v>
+        <v>7.441040116139135</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.662857522064996</v>
+        <v>2.662857522065025</v>
       </c>
     </row>
     <row r="32">
@@ -3032,13 +3032,13 @@
         <v>135.644907496719</v>
       </c>
       <c r="D32" t="n">
-        <v>123.2115697577674</v>
+        <v>123.2115697577675</v>
       </c>
       <c r="E32" t="n">
         <v>156.9183221771763</v>
       </c>
       <c r="F32" t="n">
-        <v>188.6386597555536</v>
+        <v>188.6386597555537</v>
       </c>
       <c r="G32" t="n">
         <v>204.2963684390268</v>
@@ -3047,7 +3047,7 @@
         <v>132.6531943007737</v>
       </c>
       <c r="I32" t="n">
-        <v>27.17340195472622</v>
+        <v>27.17340195472624</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.38447608408606</v>
+        <v>13.38447608408609</v>
       </c>
       <c r="T32" t="n">
-        <v>7.987524432428103</v>
+        <v>7.987524432428131</v>
       </c>
       <c r="U32" t="n">
-        <v>35.59145443705697</v>
+        <v>35.591454437057</v>
       </c>
       <c r="V32" t="n">
         <v>106.3191937246922</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.4508465226274823</v>
+        <v>215.0114364070873</v>
       </c>
       <c r="U33" t="n">
-        <v>217.238807055721</v>
+        <v>237.2287307504511</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>26.08833103094244</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>69.96416548461583</v>
       </c>
       <c r="X33" t="n">
-        <v>2.752324555010773</v>
+        <v>2.752324555010802</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.823696249565785</v>
+        <v>8.823696249565813</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.0243048056673</v>
+        <v>21.02430480566733</v>
       </c>
       <c r="T34" t="n">
-        <v>9.236972557649764</v>
+        <v>9.236972557649793</v>
       </c>
       <c r="U34" t="n">
-        <v>74.09642670953284</v>
+        <v>74.09642670953286</v>
       </c>
       <c r="V34" t="n">
-        <v>30.54842529999007</v>
+        <v>30.5484252999901</v>
       </c>
       <c r="W34" t="n">
-        <v>75.75011720487549</v>
+        <v>75.75011720487552</v>
       </c>
       <c r="X34" t="n">
-        <v>7.358865523782697</v>
+        <v>7.358865523782725</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.580682929708587</v>
+        <v>2.580682929708615</v>
       </c>
     </row>
     <row r="35">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.777485242489</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>215.0114364070873</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>112.517342786292</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>213.1782178767288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>103.185200536072</v>
+        <v>103.1852005360722</v>
       </c>
       <c r="C38" t="n">
-        <v>79.30345753941754</v>
+        <v>79.30345753941765</v>
       </c>
       <c r="D38" t="n">
-        <v>66.870119800466</v>
+        <v>66.87011980046611</v>
       </c>
       <c r="E38" t="n">
-        <v>100.5768722198749</v>
+        <v>100.576872219875</v>
       </c>
       <c r="F38" t="n">
-        <v>132.2972097982522</v>
+        <v>132.2972097982523</v>
       </c>
       <c r="G38" t="n">
-        <v>147.9549184817253</v>
+        <v>147.9549184817254</v>
       </c>
       <c r="H38" t="n">
-        <v>76.31174434347224</v>
+        <v>76.31174434347236</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>49.97774376739073</v>
+        <v>49.97774376739085</v>
       </c>
       <c r="W38" t="n">
-        <v>66.99442398400561</v>
+        <v>66.99442398400572</v>
       </c>
       <c r="X38" t="n">
-        <v>88.88067445294485</v>
+        <v>88.88067445294496</v>
       </c>
       <c r="Y38" t="n">
-        <v>111.3835275766886</v>
+        <v>111.3835275766887</v>
       </c>
     </row>
     <row r="39">
@@ -3585,19 +3585,19 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>53.76921100251533</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>9.203669586398277</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3624,10 +3624,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>8.152464119732421</v>
+        <v>8.152464119732418</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>135.3438478178128</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2287307504511</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>263.7950660946997</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>17.75497675223139</v>
+        <v>17.7549767522315</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>19.40866724757404</v>
+        <v>19.40866724757416</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>132.3532485386474</v>
+        <v>132.3532485386473</v>
       </c>
       <c r="C41" t="n">
-        <v>108.4715055419929</v>
+        <v>108.4715055419928</v>
       </c>
       <c r="D41" t="n">
-        <v>96.03816780304135</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>161.4652578008274</v>
       </c>
       <c r="G41" t="n">
-        <v>177.1229664843007</v>
+        <v>73.63947399913455</v>
       </c>
       <c r="H41" t="n">
-        <v>67.42338985866624</v>
+        <v>105.4797923460475</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.418052482330861</v>
+        <v>8.418052482330751</v>
       </c>
       <c r="V41" t="n">
-        <v>79.14579176996608</v>
+        <v>79.14579176996597</v>
       </c>
       <c r="W41" t="n">
-        <v>96.16247198658095</v>
+        <v>96.16247198658084</v>
       </c>
       <c r="X41" t="n">
-        <v>118.0487224555202</v>
+        <v>118.0487224555201</v>
       </c>
       <c r="Y41" t="n">
-        <v>140.551575579264</v>
+        <v>140.5515755792638</v>
       </c>
     </row>
     <row r="42">
@@ -3822,19 +3822,19 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>63.5174187286708</v>
       </c>
       <c r="H42" t="n">
-        <v>125.832596608752</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3873,19 +3873,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.2287307504511</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>92.26854382584281</v>
+        <v>24.97059173782554</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>46.92302475480673</v>
+        <v>46.92302475480662</v>
       </c>
       <c r="V43" t="n">
-        <v>3.375023345263969</v>
+        <v>3.375023345263855</v>
       </c>
       <c r="W43" t="n">
-        <v>48.57671525014939</v>
+        <v>48.57671525014928</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>132.3532485386473</v>
       </c>
       <c r="C44" t="n">
-        <v>108.4715055419928</v>
+        <v>108.4715055419927</v>
       </c>
       <c r="D44" t="n">
-        <v>96.03816780304123</v>
+        <v>96.0381678030412</v>
       </c>
       <c r="E44" t="n">
-        <v>129.7449202224501</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>161.4652578008274</v>
+        <v>67.42338985866817</v>
       </c>
       <c r="G44" t="n">
-        <v>177.1229664843006</v>
+        <v>177.1229664843005</v>
       </c>
       <c r="H44" t="n">
-        <v>105.4797923460475</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>8.418052482330719</v>
       </c>
       <c r="V44" t="n">
-        <v>79.14579176996597</v>
+        <v>79.14579176996594</v>
       </c>
       <c r="W44" t="n">
-        <v>96.16247198658084</v>
+        <v>96.16247198658081</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>118.04872245552</v>
       </c>
       <c r="Y44" t="n">
-        <v>70.10501854510457</v>
+        <v>140.5515755792638</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>125.832596608752</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>135.3438478178128</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.777485242489</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2287307504511</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>72.68933224894747</v>
       </c>
       <c r="W45" t="n">
-        <v>46.43651845583391</v>
+        <v>263.7950660946999</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>46.92302475480662</v>
+        <v>46.92302475480659</v>
       </c>
       <c r="V46" t="n">
-        <v>3.375023345263855</v>
+        <v>3.375023345263827</v>
       </c>
       <c r="W46" t="n">
-        <v>48.57671525014928</v>
+        <v>48.57671525014925</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.719070557086532</v>
+        <v>6.719070557086772</v>
       </c>
       <c r="C2" t="n">
-        <v>6.719070557086532</v>
+        <v>6.719070557086772</v>
       </c>
       <c r="D2" t="n">
-        <v>6.719070557086532</v>
+        <v>6.719070557086772</v>
       </c>
       <c r="E2" t="n">
-        <v>6.719070557086532</v>
+        <v>6.719070557086772</v>
       </c>
       <c r="F2" t="n">
-        <v>3.487505264143798</v>
+        <v>3.487505264143922</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="M2" t="n">
-        <v>3.423197114814238</v>
+        <v>3.423197114814359</v>
       </c>
       <c r="N2" t="n">
-        <v>6.59045425842741</v>
+        <v>6.590454258427645</v>
       </c>
       <c r="O2" t="n">
-        <v>6.719070557086532</v>
+        <v>6.590454258427645</v>
       </c>
       <c r="P2" t="n">
-        <v>6.719070557086532</v>
+        <v>6.590454258427645</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.719070557086532</v>
+        <v>6.590454258427645</v>
       </c>
       <c r="R2" t="n">
-        <v>6.719070557086532</v>
+        <v>6.590454258427645</v>
       </c>
       <c r="S2" t="n">
-        <v>6.719070557086532</v>
+        <v>6.590454258427645</v>
       </c>
       <c r="T2" t="n">
-        <v>6.719070557086532</v>
+        <v>6.590454258427645</v>
       </c>
       <c r="U2" t="n">
-        <v>6.719070557086532</v>
+        <v>6.590454258427645</v>
       </c>
       <c r="V2" t="n">
-        <v>6.719070557086532</v>
+        <v>6.590454258427645</v>
       </c>
       <c r="W2" t="n">
-        <v>6.719070557086532</v>
+        <v>6.590454258427645</v>
       </c>
       <c r="X2" t="n">
-        <v>6.719070557086532</v>
+        <v>6.719070557086772</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.719070557086532</v>
+        <v>6.719070557086772</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="K3" t="n">
-        <v>3.423197114814238</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="L3" t="n">
-        <v>6.59045425842741</v>
+        <v>3.423197114814359</v>
       </c>
       <c r="M3" t="n">
-        <v>9.757711402040584</v>
+        <v>6.462484272827108</v>
       </c>
       <c r="N3" t="n">
-        <v>12.79699856005323</v>
+        <v>9.629741416440394</v>
       </c>
       <c r="O3" t="n">
-        <v>12.79699856005323</v>
+        <v>9.629741416440394</v>
       </c>
       <c r="P3" t="n">
-        <v>12.79699856005323</v>
+        <v>12.79699856005368</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.79699856005323</v>
+        <v>12.79699856005368</v>
       </c>
       <c r="R3" t="n">
-        <v>12.79699856005323</v>
+        <v>12.79699856005368</v>
       </c>
       <c r="S3" t="n">
-        <v>12.79699856005323</v>
+        <v>12.79699856005368</v>
       </c>
       <c r="T3" t="n">
-        <v>9.565433267110492</v>
+        <v>12.79699856005368</v>
       </c>
       <c r="U3" t="n">
-        <v>6.333867974167759</v>
+        <v>9.95063585002962</v>
       </c>
       <c r="V3" t="n">
-        <v>6.333867974167759</v>
+        <v>6.719070557086772</v>
       </c>
       <c r="W3" t="n">
-        <v>3.102302681225025</v>
+        <v>6.719070557086772</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2559399712010645</v>
+        <v>3.487505264143922</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="V4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.2559399712010645</v>
+        <v>0.2559399712010736</v>
       </c>
     </row>
     <row r="5">
@@ -4595,22 +4595,22 @@
         <v>6.590454258427762</v>
       </c>
       <c r="T5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="W5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="X5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.102302681225188</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="C6" t="n">
-        <v>3.102302681225188</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="D6" t="n">
-        <v>3.102302681225188</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="E6" t="n">
-        <v>3.102302681225188</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="F6" t="n">
         <v>0.2559399712010781</v>
@@ -4647,19 +4647,19 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="K6" t="n">
-        <v>3.42319711481442</v>
+        <v>3.295227129213883</v>
       </c>
       <c r="L6" t="n">
-        <v>6.590454258427762</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="M6" t="n">
-        <v>9.757711402041103</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="N6" t="n">
-        <v>12.79699856005391</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="O6" t="n">
-        <v>12.79699856005391</v>
+        <v>9.629741416440567</v>
       </c>
       <c r="P6" t="n">
         <v>12.79699856005391</v>
@@ -4668,28 +4668,28 @@
         <v>9.565433267111001</v>
       </c>
       <c r="R6" t="n">
-        <v>6.333867974168094</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="S6" t="n">
-        <v>3.102302681225188</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="T6" t="n">
-        <v>3.102302681225188</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="U6" t="n">
-        <v>3.102302681225188</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="V6" t="n">
-        <v>3.102302681225188</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="W6" t="n">
-        <v>3.102302681225188</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="X6" t="n">
-        <v>3.102302681225188</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.102302681225188</v>
+        <v>3.487505264143985</v>
       </c>
     </row>
     <row r="7">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="C8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="D8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="E8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="F8" t="n">
         <v>3.833742919262513</v>
@@ -4838,16 +4838,16 @@
         <v>7.244751028117094</v>
       </c>
       <c r="V8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="W8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="X8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
     </row>
     <row r="9">
@@ -4890,7 +4890,7 @@
         <v>3.45619840956866</v>
       </c>
       <c r="M9" t="n">
-        <v>3.622375514058549</v>
+        <v>6.937899146382215</v>
       </c>
       <c r="N9" t="n">
         <v>7.104076250872104</v>
@@ -4908,7 +4908,7 @@
         <v>10.51508435972668</v>
       </c>
       <c r="S9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="T9" t="n">
         <v>6.962690994954155</v>
@@ -4920,13 +4920,13 @@
         <v>3.410297630181626</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.410297630181626</v>
       </c>
     </row>
     <row r="10">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>231.0162471574193</v>
+        <v>166.9433691522217</v>
       </c>
       <c r="C11" t="n">
-        <v>231.0162471574193</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="D11" t="n">
-        <v>231.0162471574193</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="E11" t="n">
-        <v>57.37619183707767</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="F11" t="n">
-        <v>57.37619183707767</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="G11" t="n">
-        <v>57.37619183707767</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="H11" t="n">
-        <v>57.37619183707767</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="I11" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="J11" t="n">
-        <v>134.7788732562763</v>
+        <v>134.7788732562764</v>
       </c>
       <c r="K11" t="n">
-        <v>134.7788732562763</v>
+        <v>134.7788732562764</v>
       </c>
       <c r="L11" t="n">
-        <v>317.8250654315117</v>
+        <v>178.5648896148861</v>
       </c>
       <c r="M11" t="n">
-        <v>395.4214049771124</v>
+        <v>361.6110817901213</v>
       </c>
       <c r="N11" t="n">
-        <v>578.4675971523477</v>
+        <v>525.0507540620214</v>
       </c>
       <c r="O11" t="n">
-        <v>629.3454618202487</v>
+        <v>556.1379180084415</v>
       </c>
       <c r="P11" t="n">
-        <v>629.3454618202487</v>
+        <v>736.1020253159022</v>
       </c>
       <c r="Q11" t="n">
-        <v>736.102025315903</v>
+        <v>736.1020253159022</v>
       </c>
       <c r="R11" t="n">
-        <v>739.5805744453954</v>
+        <v>739.5805744453946</v>
       </c>
       <c r="S11" t="n">
-        <v>710.9242020473672</v>
+        <v>710.9242020473665</v>
       </c>
       <c r="T11" t="n">
-        <v>687.719295964145</v>
+        <v>710.9242020473665</v>
       </c>
       <c r="U11" t="n">
-        <v>636.6316323004896</v>
+        <v>659.8365383837113</v>
       </c>
       <c r="V11" t="n">
-        <v>636.6316323004896</v>
+        <v>537.3067138234547</v>
       </c>
       <c r="W11" t="n">
-        <v>636.6316323004896</v>
+        <v>397.5883233878297</v>
       </c>
       <c r="X11" t="n">
-        <v>474.8059181588653</v>
+        <v>235.7626092462054</v>
       </c>
       <c r="Y11" t="n">
-        <v>290.2500493467927</v>
+        <v>166.9433691522217</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>219.0132580667147</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="C12" t="n">
-        <v>219.0132580667147</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="D12" t="n">
-        <v>219.0132580667147</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="E12" t="n">
-        <v>219.0132580667147</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="F12" t="n">
-        <v>219.0132580667147</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="G12" t="n">
-        <v>68.75603025986911</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="H12" t="n">
-        <v>68.75603025986911</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="I12" t="n">
-        <v>68.75603025986911</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="J12" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="K12" t="n">
-        <v>51.14814292564351</v>
+        <v>51.1481429256435</v>
       </c>
       <c r="L12" t="n">
         <v>166.3205284515904</v>
       </c>
       <c r="M12" t="n">
-        <v>345.4759342473505</v>
+        <v>345.4759342473498</v>
       </c>
       <c r="N12" t="n">
-        <v>528.5221264225859</v>
+        <v>528.522126422585</v>
       </c>
       <c r="O12" t="n">
-        <v>657.8555785892241</v>
+        <v>657.8555785892233</v>
       </c>
       <c r="P12" t="n">
-        <v>739.5805744453954</v>
+        <v>739.5805744453946</v>
       </c>
       <c r="Q12" t="n">
-        <v>739.5805744453954</v>
+        <v>731.3457622032407</v>
       </c>
       <c r="R12" t="n">
-        <v>602.8696170536653</v>
+        <v>594.6348048115105</v>
       </c>
       <c r="S12" t="n">
-        <v>423.9014686287961</v>
+        <v>539.5794530147817</v>
       </c>
       <c r="T12" t="n">
-        <v>408.3093685150695</v>
+        <v>352.8166816901871</v>
       </c>
       <c r="U12" t="n">
-        <v>370.2755569433997</v>
+        <v>166.0539103655925</v>
       </c>
       <c r="V12" t="n">
-        <v>328.7870078313752</v>
+        <v>124.5653612535681</v>
       </c>
       <c r="W12" t="n">
-        <v>260.9796075460079</v>
+        <v>56.7579609682009</v>
       </c>
       <c r="X12" t="n">
-        <v>243.0627821470457</v>
+        <v>38.84113556923874</v>
       </c>
       <c r="Y12" t="n">
-        <v>219.0132580667147</v>
+        <v>14.79161148890789</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="C13" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="D13" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="E13" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="F13" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="G13" t="n">
-        <v>14.79161148890791</v>
+        <v>45.34900683107885</v>
       </c>
       <c r="H13" t="n">
-        <v>14.79161148890791</v>
+        <v>58.30200636925937</v>
       </c>
       <c r="I13" t="n">
-        <v>14.79161148890791</v>
+        <v>58.30200636925937</v>
       </c>
       <c r="J13" t="n">
-        <v>14.79161148890791</v>
+        <v>58.30200636925937</v>
       </c>
       <c r="K13" t="n">
-        <v>145.0422237346155</v>
+        <v>188.552618614967</v>
       </c>
       <c r="L13" t="n">
-        <v>145.0422237346155</v>
+        <v>188.552618614967</v>
       </c>
       <c r="M13" t="n">
-        <v>145.0422237346155</v>
+        <v>188.552618614967</v>
       </c>
       <c r="N13" t="n">
-        <v>324.9901883163116</v>
+        <v>188.552618614967</v>
       </c>
       <c r="O13" t="n">
-        <v>347.8488959156263</v>
+        <v>347.8488959156256</v>
       </c>
       <c r="P13" t="n">
-        <v>347.8488959156263</v>
+        <v>347.8488959156256</v>
       </c>
       <c r="Q13" t="n">
-        <v>347.8488959156263</v>
+        <v>347.8488959156256</v>
       </c>
       <c r="R13" t="n">
-        <v>343.5725439747055</v>
+        <v>343.572543974705</v>
       </c>
       <c r="S13" t="n">
-        <v>307.1991728680094</v>
+        <v>307.1991728680089</v>
       </c>
       <c r="T13" t="n">
-        <v>282.7321979714321</v>
+        <v>282.7321979714316</v>
       </c>
       <c r="U13" t="n">
-        <v>192.7506229214374</v>
+        <v>192.7506229214371</v>
       </c>
       <c r="V13" t="n">
-        <v>146.7569280831022</v>
+        <v>146.7569280831019</v>
       </c>
       <c r="W13" t="n">
-        <v>55.10495859336748</v>
+        <v>55.10495859336729</v>
       </c>
       <c r="X13" t="n">
-        <v>32.53506150877703</v>
+        <v>32.53506150877693</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>452.0757634884171</v>
+        <v>397.5883233878302</v>
       </c>
       <c r="C14" t="n">
-        <v>452.0757634884171</v>
+        <v>397.5883233878302</v>
       </c>
       <c r="D14" t="n">
-        <v>393.2687883038296</v>
+        <v>257.9954927335583</v>
       </c>
       <c r="E14" t="n">
-        <v>393.2687883038296</v>
+        <v>84.3554374132169</v>
       </c>
       <c r="F14" t="n">
-        <v>393.2687883038296</v>
+        <v>84.3554374132169</v>
       </c>
       <c r="G14" t="n">
-        <v>206.5060169792348</v>
+        <v>57.37619183707749</v>
       </c>
       <c r="H14" t="n">
-        <v>57.37619183707768</v>
+        <v>57.37619183707749</v>
       </c>
       <c r="I14" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="J14" t="n">
-        <v>134.7788732562763</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="K14" t="n">
-        <v>317.8250654315117</v>
+        <v>145.3492706950593</v>
       </c>
       <c r="L14" t="n">
-        <v>361.6110817901214</v>
+        <v>189.135287053669</v>
       </c>
       <c r="M14" t="n">
-        <v>439.2074213357221</v>
+        <v>266.7316265992697</v>
       </c>
       <c r="N14" t="n">
-        <v>511.2169147626515</v>
+        <v>449.7778187745049</v>
       </c>
       <c r="O14" t="n">
-        <v>542.3040787090715</v>
+        <v>632.8240109497401</v>
       </c>
       <c r="P14" t="n">
-        <v>722.2681860165321</v>
+        <v>632.8240109497401</v>
       </c>
       <c r="Q14" t="n">
-        <v>739.5805744453954</v>
+        <v>739.5805744453946</v>
       </c>
       <c r="R14" t="n">
-        <v>739.5805744453954</v>
+        <v>739.5805744453946</v>
       </c>
       <c r="S14" t="n">
-        <v>710.9242020473672</v>
+        <v>710.9242020473666</v>
       </c>
       <c r="T14" t="n">
-        <v>687.719295964145</v>
+        <v>710.9242020473666</v>
       </c>
       <c r="U14" t="n">
-        <v>636.6316323004897</v>
+        <v>659.8365383837116</v>
       </c>
       <c r="V14" t="n">
-        <v>636.6316323004897</v>
+        <v>537.3067138234552</v>
       </c>
       <c r="W14" t="n">
-        <v>636.6316323004897</v>
+        <v>397.5883233878302</v>
       </c>
       <c r="X14" t="n">
-        <v>636.6316323004897</v>
+        <v>397.5883233878302</v>
       </c>
       <c r="Y14" t="n">
-        <v>452.0757634884171</v>
+        <v>397.5883233878302</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>177.553471042737</v>
+        <v>55.86267579429816</v>
       </c>
       <c r="C15" t="n">
-        <v>177.553471042737</v>
+        <v>55.86267579429816</v>
       </c>
       <c r="D15" t="n">
-        <v>177.553471042737</v>
+        <v>55.86267579429816</v>
       </c>
       <c r="E15" t="n">
-        <v>177.553471042737</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="F15" t="n">
-        <v>177.553471042737</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="G15" t="n">
-        <v>177.553471042737</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="H15" t="n">
-        <v>177.553471042737</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="I15" t="n">
-        <v>68.75603025986911</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="J15" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="K15" t="n">
-        <v>51.14814292564351</v>
+        <v>51.1481429256435</v>
       </c>
       <c r="L15" t="n">
         <v>166.3205284515904</v>
@@ -5367,40 +5367,40 @@
         <v>345.4759342473498</v>
       </c>
       <c r="N15" t="n">
-        <v>528.5221264225852</v>
+        <v>528.522126422585</v>
       </c>
       <c r="O15" t="n">
-        <v>657.8555785892235</v>
+        <v>657.8555785892232</v>
       </c>
       <c r="P15" t="n">
-        <v>739.5805744453947</v>
+        <v>739.5805744453945</v>
       </c>
       <c r="Q15" t="n">
-        <v>731.3457622032408</v>
+        <v>731.3457622032406</v>
       </c>
       <c r="R15" t="n">
-        <v>594.6348048115108</v>
+        <v>594.6348048115105</v>
       </c>
       <c r="S15" t="n">
-        <v>594.6348048115108</v>
+        <v>594.6348048115105</v>
       </c>
       <c r="T15" t="n">
-        <v>535.6955274167244</v>
+        <v>407.8720334869159</v>
       </c>
       <c r="U15" t="n">
-        <v>497.6617158450546</v>
+        <v>369.8382219152463</v>
       </c>
       <c r="V15" t="n">
-        <v>456.1731667330301</v>
+        <v>328.3496728032219</v>
       </c>
       <c r="W15" t="n">
-        <v>388.3657664476628</v>
+        <v>260.5422725178548</v>
       </c>
       <c r="X15" t="n">
-        <v>201.602995123068</v>
+        <v>242.6254471188928</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.553471042737</v>
+        <v>55.86267579429816</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14.79161148890791</v>
+        <v>36.53036475214266</v>
       </c>
       <c r="C16" t="n">
-        <v>14.79161148890791</v>
+        <v>36.53036475214266</v>
       </c>
       <c r="D16" t="n">
-        <v>14.79161148890791</v>
+        <v>36.53036475214266</v>
       </c>
       <c r="E16" t="n">
-        <v>14.79161148890791</v>
+        <v>36.53036475214266</v>
       </c>
       <c r="F16" t="n">
-        <v>14.79161148890791</v>
+        <v>36.53036475214266</v>
       </c>
       <c r="G16" t="n">
-        <v>14.79161148890791</v>
+        <v>36.53036475214266</v>
       </c>
       <c r="H16" t="n">
-        <v>14.79161148890791</v>
+        <v>36.53036475214266</v>
       </c>
       <c r="I16" t="n">
-        <v>14.79161148890791</v>
+        <v>36.53036475214266</v>
       </c>
       <c r="J16" t="n">
-        <v>14.79161148890791</v>
+        <v>58.30200636925855</v>
       </c>
       <c r="K16" t="n">
-        <v>14.79161148890791</v>
+        <v>188.5526186149663</v>
       </c>
       <c r="L16" t="n">
-        <v>14.79161148890791</v>
+        <v>188.5526186149663</v>
       </c>
       <c r="M16" t="n">
-        <v>14.79161148890791</v>
+        <v>188.5526186149663</v>
       </c>
       <c r="N16" t="n">
-        <v>188.5526186149678</v>
+        <v>188.5526186149663</v>
       </c>
       <c r="O16" t="n">
-        <v>347.8488959156263</v>
+        <v>347.848895915625</v>
       </c>
       <c r="P16" t="n">
-        <v>347.8488959156263</v>
+        <v>347.848895915625</v>
       </c>
       <c r="Q16" t="n">
-        <v>347.8488959156263</v>
+        <v>347.848895915625</v>
       </c>
       <c r="R16" t="n">
-        <v>343.5725439747055</v>
+        <v>343.5725439747043</v>
       </c>
       <c r="S16" t="n">
-        <v>307.1991728680094</v>
+        <v>307.1991728680084</v>
       </c>
       <c r="T16" t="n">
-        <v>282.7321979714321</v>
+        <v>282.7321979714312</v>
       </c>
       <c r="U16" t="n">
-        <v>192.7506229214374</v>
+        <v>192.7506229214367</v>
       </c>
       <c r="V16" t="n">
-        <v>146.7569280831022</v>
+        <v>146.7569280831016</v>
       </c>
       <c r="W16" t="n">
-        <v>55.10495859336748</v>
+        <v>55.10495859336712</v>
       </c>
       <c r="X16" t="n">
-        <v>32.53506150877703</v>
+        <v>32.53506150877684</v>
       </c>
       <c r="Y16" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>455.4976380247174</v>
+        <v>455.497638024717</v>
       </c>
       <c r="C17" t="n">
-        <v>403.5101987446251</v>
+        <v>403.5101987446245</v>
       </c>
       <c r="D17" t="n">
-        <v>364.0816864735747</v>
+        <v>364.0816864735741</v>
       </c>
       <c r="E17" t="n">
-        <v>290.6059495364548</v>
+        <v>290.6059495364542</v>
       </c>
       <c r="F17" t="n">
-        <v>185.0894675706709</v>
+        <v>185.0894675706703</v>
       </c>
       <c r="G17" t="n">
-        <v>63.75711824784334</v>
+        <v>63.75711824784332</v>
       </c>
       <c r="H17" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="I17" t="n">
-        <v>71.2255127370623</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="J17" t="n">
-        <v>91.14559559908656</v>
+        <v>197.8378036641431</v>
       </c>
       <c r="K17" t="n">
-        <v>91.14559559908656</v>
+        <v>244.9575657882846</v>
       </c>
       <c r="L17" t="n">
-        <v>274.1917877743219</v>
+        <v>288.7435821468943</v>
       </c>
       <c r="M17" t="n">
-        <v>351.7881273199226</v>
+        <v>366.339921692495</v>
       </c>
       <c r="N17" t="n">
-        <v>423.797620746852</v>
+        <v>438.3494151194244</v>
       </c>
       <c r="O17" t="n">
-        <v>454.8847846932721</v>
+        <v>621.3956072946596</v>
       </c>
       <c r="P17" t="n">
-        <v>637.9309768685075</v>
+        <v>621.3956072946596</v>
       </c>
       <c r="Q17" t="n">
-        <v>637.9309768685075</v>
+        <v>621.3956072946596</v>
       </c>
       <c r="R17" t="n">
-        <v>739.5805744453954</v>
+        <v>621.3956072946596</v>
       </c>
       <c r="S17" t="n">
-        <v>739.5805744453954</v>
+        <v>691.4805451547478</v>
       </c>
       <c r="T17" t="n">
-        <v>739.5805744453954</v>
+        <v>691.4805451547478</v>
       </c>
       <c r="U17" t="n">
-        <v>739.5805744453954</v>
+        <v>739.5805744453947</v>
       </c>
       <c r="V17" t="n">
-        <v>717.2150682683605</v>
+        <v>717.2150682683599</v>
       </c>
       <c r="W17" t="n">
-        <v>677.6609962159571</v>
+        <v>677.6609962159565</v>
       </c>
       <c r="X17" t="n">
-        <v>615.9996004575544</v>
+        <v>615.9996004575538</v>
       </c>
       <c r="Y17" t="n">
-        <v>531.6080500287035</v>
+        <v>531.6080500287028</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>255.5188015844639</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="C18" t="n">
-        <v>68.75603025986911</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="D18" t="n">
-        <v>68.75603025986911</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="E18" t="n">
-        <v>68.75603025986911</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="F18" t="n">
-        <v>68.75603025986911</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="G18" t="n">
-        <v>68.75603025986911</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="H18" t="n">
-        <v>68.75603025986911</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="I18" t="n">
-        <v>68.75603025986911</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="J18" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="K18" t="n">
-        <v>51.14814292564351</v>
+        <v>51.14814292564358</v>
       </c>
       <c r="L18" t="n">
-        <v>166.3205284515904</v>
+        <v>166.3205284515905</v>
       </c>
       <c r="M18" t="n">
-        <v>345.4759342473498</v>
+        <v>345.47593424735</v>
       </c>
       <c r="N18" t="n">
         <v>528.5221264225852</v>
@@ -5616,28 +5616,28 @@
         <v>739.5805744453947</v>
       </c>
       <c r="R18" t="n">
-        <v>602.8696170536646</v>
+        <v>739.5805744453947</v>
       </c>
       <c r="S18" t="n">
-        <v>416.1068457290697</v>
+        <v>575.0799254626918</v>
       </c>
       <c r="T18" t="n">
-        <v>255.5188015844639</v>
+        <v>388.3171541380972</v>
       </c>
       <c r="U18" t="n">
-        <v>255.5188015844639</v>
+        <v>201.5543828135025</v>
       </c>
       <c r="V18" t="n">
-        <v>255.5188015844639</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="W18" t="n">
-        <v>255.5188015844639</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="X18" t="n">
-        <v>255.5188015844639</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="Y18" t="n">
-        <v>255.5188015844639</v>
+        <v>14.7916114889079</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="C19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="D19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="E19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="F19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="G19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="H19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="I19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="J19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="K19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="L19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="M19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="N19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="O19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="P19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="R19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="S19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="T19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="U19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="V19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="W19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="X19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.79161148890791</v>
+        <v>14.7916114889079</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>455.4976380247177</v>
+        <v>455.4976380247169</v>
       </c>
       <c r="C20" t="n">
-        <v>403.5101987446254</v>
+        <v>403.5101987446246</v>
       </c>
       <c r="D20" t="n">
-        <v>364.0816864735751</v>
+        <v>364.0816864735743</v>
       </c>
       <c r="E20" t="n">
-        <v>290.6059495364552</v>
+        <v>290.6059495364544</v>
       </c>
       <c r="F20" t="n">
-        <v>185.0894675706713</v>
+        <v>185.0894675706708</v>
       </c>
       <c r="G20" t="n">
         <v>63.75711824784334</v>
       </c>
       <c r="H20" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="I20" t="n">
-        <v>71.2255127370623</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="J20" t="n">
-        <v>254.2717049122977</v>
+        <v>197.8378036641431</v>
       </c>
       <c r="K20" t="n">
-        <v>254.2717049122977</v>
+        <v>197.8378036641431</v>
       </c>
       <c r="L20" t="n">
-        <v>298.0577212709073</v>
+        <v>241.6238200227527</v>
       </c>
       <c r="M20" t="n">
-        <v>375.654060816508</v>
+        <v>319.2201595683534</v>
       </c>
       <c r="N20" t="n">
-        <v>447.6635542434374</v>
+        <v>502.2663517435886</v>
       </c>
       <c r="O20" t="n">
-        <v>478.7507181898575</v>
+        <v>533.3535156900087</v>
       </c>
       <c r="P20" t="n">
-        <v>508.4343529795131</v>
+        <v>533.3535156900087</v>
       </c>
       <c r="Q20" t="n">
-        <v>691.4805451547485</v>
+        <v>716.399707865244</v>
       </c>
       <c r="R20" t="n">
-        <v>691.4805451547485</v>
+        <v>739.5805744453946</v>
       </c>
       <c r="S20" t="n">
-        <v>691.4805451547485</v>
+        <v>739.5805744453946</v>
       </c>
       <c r="T20" t="n">
-        <v>691.4805451547485</v>
+        <v>739.5805744453946</v>
       </c>
       <c r="U20" t="n">
-        <v>739.5805744453954</v>
+        <v>739.5805744453946</v>
       </c>
       <c r="V20" t="n">
-        <v>717.2150682683605</v>
+        <v>717.2150682683596</v>
       </c>
       <c r="W20" t="n">
-        <v>677.6609962159571</v>
+        <v>677.6609962159562</v>
       </c>
       <c r="X20" t="n">
-        <v>615.9996004575544</v>
+        <v>615.9996004575535</v>
       </c>
       <c r="Y20" t="n">
-        <v>531.6080500287035</v>
+        <v>531.6080500287026</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>42.58130307988012</v>
+        <v>42.58130307988051</v>
       </c>
       <c r="C21" t="n">
-        <v>42.58130307988012</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="D21" t="n">
-        <v>42.58130307988012</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="E21" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="F21" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="G21" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="H21" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="I21" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="J21" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="K21" t="n">
-        <v>51.14814292564351</v>
+        <v>51.1481429256435</v>
       </c>
       <c r="L21" t="n">
         <v>166.3205284515904</v>
@@ -5841,40 +5841,40 @@
         <v>345.4759342473498</v>
       </c>
       <c r="N21" t="n">
-        <v>528.5221264225852</v>
+        <v>528.522126422585</v>
       </c>
       <c r="O21" t="n">
-        <v>657.8555785892235</v>
+        <v>657.8555785892232</v>
       </c>
       <c r="P21" t="n">
-        <v>739.5805744453947</v>
+        <v>739.5805744453945</v>
       </c>
       <c r="Q21" t="n">
-        <v>739.5805744453947</v>
+        <v>739.5805744453945</v>
       </c>
       <c r="R21" t="n">
-        <v>602.8696170536646</v>
+        <v>602.8696170536643</v>
       </c>
       <c r="S21" t="n">
-        <v>602.8696170536646</v>
+        <v>416.1068457290697</v>
       </c>
       <c r="T21" t="n">
-        <v>416.1068457290697</v>
+        <v>229.3440744044751</v>
       </c>
       <c r="U21" t="n">
-        <v>416.1068457290697</v>
+        <v>229.3440744044751</v>
       </c>
       <c r="V21" t="n">
-        <v>416.1068457290697</v>
+        <v>42.58130307988051</v>
       </c>
       <c r="W21" t="n">
-        <v>229.3440744044749</v>
+        <v>42.58130307988051</v>
       </c>
       <c r="X21" t="n">
-        <v>42.58130307988012</v>
+        <v>42.58130307988051</v>
       </c>
       <c r="Y21" t="n">
-        <v>42.58130307988012</v>
+        <v>42.58130307988051</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="C22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="D22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="E22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="F22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="G22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="H22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="I22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="J22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="K22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="L22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="M22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="N22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="O22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="P22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="R22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="S22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="T22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="U22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="V22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="W22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="X22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="Y22" t="n">
-        <v>14.79161148890791</v>
+        <v>14.79161148890789</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>455.4976380247173</v>
+        <v>455.4976380247165</v>
       </c>
       <c r="C23" t="n">
-        <v>403.510198744625</v>
+        <v>403.5101987446242</v>
       </c>
       <c r="D23" t="n">
-        <v>364.0816864735745</v>
+        <v>364.0816864735739</v>
       </c>
       <c r="E23" t="n">
-        <v>290.605949536454</v>
+        <v>290.6059495364541</v>
       </c>
       <c r="F23" t="n">
-        <v>185.0894675706701</v>
+        <v>185.0894675706704</v>
       </c>
       <c r="G23" t="n">
         <v>63.75711824784332</v>
       </c>
       <c r="H23" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="I23" t="n">
-        <v>71.22551273706229</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="J23" t="n">
-        <v>254.2717049122975</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="K23" t="n">
-        <v>437.3178970875327</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="L23" t="n">
-        <v>558.8875775264445</v>
+        <v>58.57762784751756</v>
       </c>
       <c r="M23" t="n">
-        <v>636.4839170720452</v>
+        <v>136.1739673931183</v>
       </c>
       <c r="N23" t="n">
-        <v>708.4934104989746</v>
+        <v>300.2696714609749</v>
       </c>
       <c r="O23" t="n">
-        <v>739.5805744453947</v>
+        <v>331.356835407395</v>
       </c>
       <c r="P23" t="n">
-        <v>739.5805744453947</v>
+        <v>514.4030275826302</v>
       </c>
       <c r="Q23" t="n">
-        <v>739.5805744453947</v>
+        <v>514.4030275826302</v>
       </c>
       <c r="R23" t="n">
-        <v>739.5805744453947</v>
+        <v>616.0526251595181</v>
       </c>
       <c r="S23" t="n">
-        <v>739.5805744453947</v>
+        <v>616.0526251595181</v>
       </c>
       <c r="T23" t="n">
-        <v>739.5805744453947</v>
+        <v>691.4805451547477</v>
       </c>
       <c r="U23" t="n">
-        <v>739.5805744453947</v>
+        <v>739.5805744453946</v>
       </c>
       <c r="V23" t="n">
-        <v>717.2150682683599</v>
+        <v>717.2150682683597</v>
       </c>
       <c r="W23" t="n">
-        <v>677.6609962159567</v>
+        <v>677.6609962159562</v>
       </c>
       <c r="X23" t="n">
-        <v>615.999600457554</v>
+        <v>615.9996004575535</v>
       </c>
       <c r="Y23" t="n">
-        <v>531.608050028703</v>
+        <v>531.6080500287023</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>639.6953597974498</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="C24" t="n">
-        <v>452.9325884728552</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="D24" t="n">
-        <v>292.1524722338869</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="E24" t="n">
-        <v>292.1524722338869</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="F24" t="n">
-        <v>292.1524722338869</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="G24" t="n">
-        <v>141.8952444270413</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="H24" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="I24" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="J24" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="K24" t="n">
-        <v>51.14814292564358</v>
+        <v>51.1481429256435</v>
       </c>
       <c r="L24" t="n">
-        <v>166.3205284515905</v>
+        <v>166.3205284515904</v>
       </c>
       <c r="M24" t="n">
-        <v>345.47593424735</v>
+        <v>345.4759342473498</v>
       </c>
       <c r="N24" t="n">
-        <v>528.5221264225852</v>
+        <v>528.522126422585</v>
       </c>
       <c r="O24" t="n">
-        <v>657.8555785892235</v>
+        <v>657.8555785892232</v>
       </c>
       <c r="P24" t="n">
-        <v>739.5805744453947</v>
+        <v>739.5805744453945</v>
       </c>
       <c r="Q24" t="n">
-        <v>739.5805744453947</v>
+        <v>731.3457622032406</v>
       </c>
       <c r="R24" t="n">
-        <v>739.5805744453947</v>
+        <v>731.3457622032406</v>
       </c>
       <c r="S24" t="n">
-        <v>739.5805744453947</v>
+        <v>731.3457622032406</v>
       </c>
       <c r="T24" t="n">
-        <v>739.5805744453947</v>
+        <v>544.582990878646</v>
       </c>
       <c r="U24" t="n">
-        <v>739.5805744453947</v>
+        <v>357.8202195540514</v>
       </c>
       <c r="V24" t="n">
-        <v>739.5805744453947</v>
+        <v>201.5543828135025</v>
       </c>
       <c r="W24" t="n">
-        <v>739.5805744453947</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="X24" t="n">
-        <v>739.5805744453947</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="Y24" t="n">
-        <v>739.5805744453947</v>
+        <v>14.79161148890789</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="C25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="D25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="E25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="F25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="G25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="H25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="I25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="J25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="K25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="L25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="M25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="N25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="O25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="P25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="R25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="S25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="T25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="U25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="V25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="W25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="X25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
       <c r="Y25" t="n">
-        <v>14.7916114889079</v>
+        <v>14.79161148890789</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1014.539929359058</v>
+        <v>1014.539929359059</v>
       </c>
       <c r="C26" t="n">
-        <v>877.4418666428205</v>
+        <v>877.4418666428207</v>
       </c>
       <c r="D26" t="n">
-        <v>752.9027309356247</v>
+        <v>752.902730935625</v>
       </c>
       <c r="E26" t="n">
-        <v>594.3163705623595</v>
+        <v>594.3163705623597</v>
       </c>
       <c r="F26" t="n">
-        <v>403.6892651604301</v>
+        <v>403.6892651604303</v>
       </c>
       <c r="G26" t="n">
-        <v>197.2462924014572</v>
+        <v>197.2462924014574</v>
       </c>
       <c r="H26" t="n">
-        <v>63.17016220637632</v>
+        <v>63.17016220637652</v>
       </c>
       <c r="I26" t="n">
-        <v>35.63927680528282</v>
+        <v>35.63927680528281</v>
       </c>
       <c r="J26" t="n">
-        <v>170.3806649902805</v>
+        <v>170.3806649902806</v>
       </c>
       <c r="K26" t="n">
-        <v>373.6887032443553</v>
+        <v>373.6887032443556</v>
       </c>
       <c r="L26" t="n">
-        <v>629.8083507421475</v>
+        <v>629.8083507421477</v>
       </c>
       <c r="M26" t="n">
-        <v>919.7383214269306</v>
+        <v>919.7383214269308</v>
       </c>
       <c r="N26" t="n">
         <v>1204.081445993043</v>
@@ -6269,7 +6269,7 @@
         <v>1345.263138664186</v>
       </c>
       <c r="Y26" t="n">
-        <v>1175.760964799189</v>
+        <v>1175.76096479919</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>35.63927680528282</v>
+        <v>225.0515510723191</v>
       </c>
       <c r="C27" t="n">
-        <v>35.63927680528282</v>
+        <v>35.63927680528281</v>
       </c>
       <c r="D27" t="n">
-        <v>35.63927680528282</v>
+        <v>35.63927680528281</v>
       </c>
       <c r="E27" t="n">
-        <v>35.63927680528282</v>
+        <v>35.63927680528281</v>
       </c>
       <c r="F27" t="n">
-        <v>35.63927680528282</v>
+        <v>35.63927680528281</v>
       </c>
       <c r="G27" t="n">
-        <v>35.63927680528282</v>
+        <v>35.63927680528281</v>
       </c>
       <c r="H27" t="n">
-        <v>35.63927680528282</v>
+        <v>35.63927680528281</v>
       </c>
       <c r="I27" t="n">
-        <v>35.63927680528282</v>
+        <v>35.63927680528281</v>
       </c>
       <c r="J27" t="n">
-        <v>35.63927680528282</v>
+        <v>35.63927680528281</v>
       </c>
       <c r="K27" t="n">
-        <v>71.99580824201843</v>
+        <v>71.99580824201841</v>
       </c>
       <c r="L27" t="n">
         <v>187.1681937679653</v>
       </c>
       <c r="M27" t="n">
-        <v>366.3235995637248</v>
+        <v>366.3235995637247</v>
       </c>
       <c r="N27" t="n">
-        <v>568.6406054242299</v>
+        <v>568.6406054242298</v>
       </c>
       <c r="O27" t="n">
-        <v>697.9740575908681</v>
+        <v>697.974057590868</v>
       </c>
       <c r="P27" t="n">
-        <v>779.6990534470394</v>
+        <v>779.6990534470393</v>
       </c>
       <c r="Q27" t="n">
-        <v>779.6990534470394</v>
+        <v>779.6990534470393</v>
       </c>
       <c r="R27" t="n">
-        <v>779.6990534470394</v>
+        <v>779.6990534470393</v>
       </c>
       <c r="S27" t="n">
-        <v>779.6990534470394</v>
+        <v>779.6990534470393</v>
       </c>
       <c r="T27" t="n">
-        <v>779.1606482803891</v>
+        <v>562.5157843489714</v>
       </c>
       <c r="U27" t="n">
-        <v>559.9765237564981</v>
+        <v>539.5356677243777</v>
       </c>
       <c r="V27" t="n">
-        <v>316.8968056601321</v>
+        <v>513.1008135594295</v>
       </c>
       <c r="W27" t="n">
-        <v>47.49823639042349</v>
+        <v>453.5553745888774</v>
       </c>
       <c r="X27" t="n">
-        <v>44.63510593853751</v>
+        <v>450.6922441369915</v>
       </c>
       <c r="Y27" t="n">
-        <v>35.63927680528282</v>
+        <v>225.0515510723191</v>
       </c>
     </row>
     <row r="28">
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.63927680528282</v>
+        <v>35.63927680528281</v>
       </c>
       <c r="C28" t="n">
-        <v>35.63927680528282</v>
+        <v>35.63927680528281</v>
       </c>
       <c r="D28" t="n">
-        <v>35.63927680528282</v>
+        <v>35.63927680528281</v>
       </c>
       <c r="E28" t="n">
-        <v>35.63927680528282</v>
+        <v>35.63927680528281</v>
       </c>
       <c r="F28" t="n">
-        <v>35.63927680528282</v>
+        <v>35.63927680528281</v>
       </c>
       <c r="G28" t="n">
-        <v>35.63927680528282</v>
+        <v>35.63927680528281</v>
       </c>
       <c r="H28" t="n">
-        <v>35.63927680528282</v>
+        <v>35.63927680528281</v>
       </c>
       <c r="I28" t="n">
-        <v>35.63927680528282</v>
+        <v>35.63927680528281</v>
       </c>
       <c r="J28" t="n">
-        <v>35.63927680528282</v>
+        <v>35.63927680528281</v>
       </c>
       <c r="K28" t="n">
-        <v>35.63927680528282</v>
+        <v>173.354075244848</v>
       </c>
       <c r="L28" t="n">
-        <v>35.63927680528282</v>
+        <v>173.354075244848</v>
       </c>
       <c r="M28" t="n">
-        <v>221.7005331951515</v>
+        <v>173.354075244848</v>
       </c>
       <c r="N28" t="n">
-        <v>221.7005331951515</v>
+        <v>173.354075244848</v>
       </c>
       <c r="O28" t="n">
-        <v>259.0443446615467</v>
+        <v>173.354075244848</v>
       </c>
       <c r="P28" t="n">
-        <v>259.0443446615467</v>
+        <v>173.354075244848</v>
       </c>
       <c r="Q28" t="n">
         <v>259.0443446615467</v>
@@ -6421,13 +6421,13 @@
         <v>122.4435085582483</v>
       </c>
       <c r="W28" t="n">
-        <v>45.84523401558988</v>
+        <v>45.84523401558987</v>
       </c>
       <c r="X28" t="n">
-        <v>38.32903187807569</v>
+        <v>38.32903187807568</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.63927680528282</v>
+        <v>35.63927680528281</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6440,22 @@
         <v>1014.539929359058</v>
       </c>
       <c r="C29" t="n">
-        <v>877.4418666428206</v>
+        <v>877.4418666428203</v>
       </c>
       <c r="D29" t="n">
-        <v>752.9027309356248</v>
+        <v>752.9027309356244</v>
       </c>
       <c r="E29" t="n">
-        <v>594.3163705623595</v>
+        <v>594.316370562359</v>
       </c>
       <c r="F29" t="n">
-        <v>403.6892651604301</v>
+        <v>403.6892651604296</v>
       </c>
       <c r="G29" t="n">
-        <v>197.2462924014571</v>
+        <v>197.2462924014567</v>
       </c>
       <c r="H29" t="n">
-        <v>63.17016220637638</v>
+        <v>63.1701622063764</v>
       </c>
       <c r="I29" t="n">
         <v>35.6392768052828</v>
@@ -6464,19 +6464,19 @@
         <v>170.3806649902806</v>
       </c>
       <c r="K29" t="n">
-        <v>373.6887032443554</v>
+        <v>373.6887032443552</v>
       </c>
       <c r="L29" t="n">
-        <v>629.8083507421475</v>
+        <v>629.8083507421472</v>
       </c>
       <c r="M29" t="n">
-        <v>919.7383214269305</v>
+        <v>919.7383214269303</v>
       </c>
       <c r="N29" t="n">
-        <v>1204.081445993043</v>
+        <v>1204.081445993042</v>
       </c>
       <c r="O29" t="n">
-        <v>1447.502241078645</v>
+        <v>1447.502241078644</v>
       </c>
       <c r="P29" t="n">
         <v>1642.220474803735</v>
@@ -6491,22 +6491,22 @@
         <v>1768.361162813188</v>
       </c>
       <c r="T29" t="n">
-        <v>1760.209951677043</v>
+        <v>1760.209951677042</v>
       </c>
       <c r="U29" t="n">
         <v>1724.175982960463</v>
       </c>
       <c r="V29" t="n">
-        <v>1616.699853347283</v>
+        <v>1616.699853347282</v>
       </c>
       <c r="W29" t="n">
         <v>1492.035157858734</v>
       </c>
       <c r="X29" t="n">
-        <v>1345.263138664186</v>
+        <v>1345.263138664185</v>
       </c>
       <c r="Y29" t="n">
-        <v>1175.76096479919</v>
+        <v>1175.760964799189</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>359.459708490714</v>
+        <v>196.0669930880387</v>
       </c>
       <c r="C30" t="n">
-        <v>359.459708490714</v>
+        <v>196.0669930880387</v>
       </c>
       <c r="D30" t="n">
-        <v>359.459708490714</v>
+        <v>196.0669930880387</v>
       </c>
       <c r="E30" t="n">
-        <v>185.8965046121284</v>
+        <v>196.0669930880387</v>
       </c>
       <c r="F30" t="n">
-        <v>185.8965046121284</v>
+        <v>35.6392768052828</v>
       </c>
       <c r="G30" t="n">
         <v>35.6392768052828</v>
@@ -6564,28 +6564,28 @@
         <v>779.6990534470393</v>
       </c>
       <c r="R30" t="n">
-        <v>642.9880960553091</v>
+        <v>779.6990534470393</v>
       </c>
       <c r="S30" t="n">
-        <v>642.9880960553091</v>
+        <v>585.9844218889696</v>
       </c>
       <c r="T30" t="n">
-        <v>642.4496908886588</v>
+        <v>585.4460167223191</v>
       </c>
       <c r="U30" t="n">
-        <v>619.4695742640652</v>
+        <v>503.7593761078366</v>
       </c>
       <c r="V30" t="n">
-        <v>593.0347200991168</v>
+        <v>477.3245219428883</v>
       </c>
       <c r="W30" t="n">
-        <v>540.2810147608258</v>
+        <v>424.5708166045972</v>
       </c>
       <c r="X30" t="n">
-        <v>537.4178843089397</v>
+        <v>421.7076861527111</v>
       </c>
       <c r="Y30" t="n">
-        <v>528.422055175685</v>
+        <v>196.0669930880387</v>
       </c>
     </row>
     <row r="31">
@@ -6613,55 +6613,55 @@
         <v>35.6392768052828</v>
       </c>
       <c r="H31" t="n">
-        <v>83.73258451118015</v>
+        <v>35.6392768052828</v>
       </c>
       <c r="I31" t="n">
-        <v>83.73258451118015</v>
+        <v>35.6392768052828</v>
       </c>
       <c r="J31" t="n">
-        <v>162.7912013645155</v>
+        <v>35.6392768052828</v>
       </c>
       <c r="K31" t="n">
-        <v>162.7912013645155</v>
+        <v>180.6440154686198</v>
       </c>
       <c r="L31" t="n">
-        <v>162.7912013645155</v>
+        <v>180.6440154686198</v>
       </c>
       <c r="M31" t="n">
-        <v>162.7912013645155</v>
+        <v>180.6440154686198</v>
       </c>
       <c r="N31" t="n">
-        <v>162.7912013645155</v>
+        <v>180.6440154686198</v>
       </c>
       <c r="O31" t="n">
-        <v>162.7912013645155</v>
+        <v>180.6440154686198</v>
       </c>
       <c r="P31" t="n">
-        <v>162.7912013645155</v>
+        <v>180.6440154686198</v>
       </c>
       <c r="Q31" t="n">
-        <v>248.4814707812141</v>
+        <v>248.4814707812144</v>
       </c>
       <c r="R31" t="n">
-        <v>259.044344661547</v>
+        <v>259.0443446615473</v>
       </c>
       <c r="S31" t="n">
-        <v>237.7246685019271</v>
+        <v>237.7246685019273</v>
       </c>
       <c r="T31" t="n">
-        <v>228.311388552426</v>
+        <v>228.3113885524261</v>
       </c>
       <c r="U31" t="n">
-        <v>153.3835084495075</v>
+        <v>153.3835084495076</v>
       </c>
       <c r="V31" t="n">
-        <v>122.4435085582485</v>
+        <v>122.4435085582486</v>
       </c>
       <c r="W31" t="n">
-        <v>45.84523401558998</v>
+        <v>45.84523401559004</v>
       </c>
       <c r="X31" t="n">
-        <v>38.32903187807573</v>
+        <v>38.32903187807576</v>
       </c>
       <c r="Y31" t="n">
         <v>35.6392768052828</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1013.933487304562</v>
+        <v>1013.933487304563</v>
       </c>
       <c r="C32" t="n">
-        <v>876.9184292270681</v>
+        <v>876.9184292270692</v>
       </c>
       <c r="D32" t="n">
-        <v>752.4622981586161</v>
+        <v>752.4622981586172</v>
       </c>
       <c r="E32" t="n">
-        <v>593.9589424240946</v>
+        <v>593.9589424240955</v>
       </c>
       <c r="F32" t="n">
-        <v>403.4148416609091</v>
+        <v>403.41484166091</v>
       </c>
       <c r="G32" t="n">
-        <v>197.0548735406801</v>
+        <v>197.0548735406808</v>
       </c>
       <c r="H32" t="n">
-        <v>63.06174798434361</v>
+        <v>63.06174798434364</v>
       </c>
       <c r="I32" t="n">
         <v>35.6138672219939</v>
@@ -6704,10 +6704,10 @@
         <v>373.8259993539322</v>
       </c>
       <c r="L32" t="n">
-        <v>628.0497544991051</v>
+        <v>628.0497544991056</v>
       </c>
       <c r="M32" t="n">
-        <v>918.061078030321</v>
+        <v>918.0610780303214</v>
       </c>
       <c r="N32" t="n">
         <v>1202.485555442866</v>
@@ -6728,22 +6728,22 @@
         <v>1767.173688287487</v>
       </c>
       <c r="T32" t="n">
-        <v>1759.105481790084</v>
+        <v>1759.105481790085</v>
       </c>
       <c r="U32" t="n">
-        <v>1723.154517712248</v>
+        <v>1723.154517712249</v>
       </c>
       <c r="V32" t="n">
         <v>1615.761392737812</v>
       </c>
       <c r="W32" t="n">
-        <v>1491.179701888006</v>
+        <v>1491.179701888007</v>
       </c>
       <c r="X32" t="n">
-        <v>1344.490687332202</v>
+        <v>1344.490687332203</v>
       </c>
       <c r="Y32" t="n">
-        <v>1175.07151810595</v>
+        <v>1175.071518105951</v>
       </c>
     </row>
     <row r="33">
@@ -6789,40 +6789,40 @@
         <v>366.2981899804358</v>
       </c>
       <c r="N33" t="n">
-        <v>568.6151958409408</v>
+        <v>568.6151958409409</v>
       </c>
       <c r="O33" t="n">
-        <v>697.9486480075791</v>
+        <v>697.9486480075792</v>
       </c>
       <c r="P33" t="n">
-        <v>779.6736438637504</v>
+        <v>779.6736438637505</v>
       </c>
       <c r="Q33" t="n">
-        <v>779.6736438637504</v>
+        <v>779.6736438637505</v>
       </c>
       <c r="R33" t="n">
-        <v>779.6736438637504</v>
+        <v>779.6736438637505</v>
       </c>
       <c r="S33" t="n">
-        <v>779.6736438637504</v>
+        <v>779.6736438637505</v>
       </c>
       <c r="T33" t="n">
-        <v>779.2182433358438</v>
+        <v>562.4903747656825</v>
       </c>
       <c r="U33" t="n">
-        <v>559.7851048957216</v>
+        <v>322.8653942096713</v>
       </c>
       <c r="V33" t="n">
-        <v>316.7053867993557</v>
+        <v>296.5135446834668</v>
       </c>
       <c r="W33" t="n">
-        <v>47.30681752964699</v>
+        <v>225.8426704565821</v>
       </c>
       <c r="X33" t="n">
-        <v>44.52669171650479</v>
+        <v>223.0625446434399</v>
       </c>
       <c r="Y33" t="n">
-        <v>35.6138672219939</v>
+        <v>214.149720148929</v>
       </c>
     </row>
     <row r="34">
@@ -6853,52 +6853,52 @@
         <v>35.6138672219939</v>
       </c>
       <c r="I34" t="n">
-        <v>35.6138672219939</v>
+        <v>84.57354006972429</v>
       </c>
       <c r="J34" t="n">
-        <v>35.6138672219939</v>
+        <v>84.57354006972429</v>
       </c>
       <c r="K34" t="n">
-        <v>35.6138672219939</v>
+        <v>84.57354006972429</v>
       </c>
       <c r="L34" t="n">
-        <v>35.6138672219939</v>
+        <v>258.4379026070515</v>
       </c>
       <c r="M34" t="n">
-        <v>35.6138672219939</v>
+        <v>258.4379026070515</v>
       </c>
       <c r="N34" t="n">
-        <v>35.6138672219939</v>
+        <v>258.4379026070515</v>
       </c>
       <c r="O34" t="n">
-        <v>104.9256828851536</v>
+        <v>258.4379026070515</v>
       </c>
       <c r="P34" t="n">
-        <v>258.4379026070512</v>
+        <v>258.4379026070515</v>
       </c>
       <c r="Q34" t="n">
-        <v>258.4379026070512</v>
+        <v>258.4379026070515</v>
       </c>
       <c r="R34" t="n">
-        <v>258.4379026070512</v>
+        <v>258.4379026070515</v>
       </c>
       <c r="S34" t="n">
-        <v>237.2012310861752</v>
+        <v>237.2012310861754</v>
       </c>
       <c r="T34" t="n">
-        <v>227.8709557754178</v>
+        <v>227.870955775418</v>
       </c>
       <c r="U34" t="n">
-        <v>153.0260803112432</v>
+        <v>153.0260803112434</v>
       </c>
       <c r="V34" t="n">
-        <v>122.169085058728</v>
+        <v>122.1690850587281</v>
       </c>
       <c r="W34" t="n">
-        <v>45.65381515481338</v>
+        <v>45.65381515481344</v>
       </c>
       <c r="X34" t="n">
-        <v>38.22061765604298</v>
+        <v>38.220617656043</v>
       </c>
       <c r="Y34" t="n">
         <v>35.6138672219939</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>630.5120115332411</v>
+        <v>630.5120115332418</v>
       </c>
       <c r="C35" t="n">
-        <v>550.4075089681728</v>
+        <v>550.4075089681735</v>
       </c>
       <c r="D35" t="n">
-        <v>482.8619334121465</v>
+        <v>482.8619334121472</v>
       </c>
       <c r="E35" t="n">
-        <v>381.2691331900506</v>
+        <v>381.2691331900513</v>
       </c>
       <c r="F35" t="n">
-        <v>247.6355879392906</v>
+        <v>247.6355879392913</v>
       </c>
       <c r="G35" t="n">
-        <v>98.18617533148745</v>
+        <v>98.18617533148746</v>
       </c>
       <c r="H35" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="I35" t="n">
-        <v>49.97997281012535</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="J35" t="n">
-        <v>49.97997281012535</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="K35" t="n">
-        <v>309.1473993683613</v>
+        <v>280.271031845812</v>
       </c>
       <c r="L35" t="n">
-        <v>352.933415726971</v>
+        <v>424.5198336205886</v>
       </c>
       <c r="M35" t="n">
-        <v>430.5297552725717</v>
+        <v>502.1161731661893</v>
       </c>
       <c r="N35" t="n">
-        <v>502.5392486995011</v>
+        <v>574.1256665931187</v>
       </c>
       <c r="O35" t="n">
-        <v>533.6264126459212</v>
+        <v>835.2827820268716</v>
       </c>
       <c r="P35" t="n">
-        <v>784.2040346751724</v>
+        <v>835.2827820268716</v>
       </c>
       <c r="Q35" t="n">
-        <v>961.5741128926172</v>
+        <v>1012.652860244316</v>
       </c>
       <c r="R35" t="n">
-        <v>961.5741128926172</v>
+        <v>1012.652860244316</v>
       </c>
       <c r="S35" t="n">
-        <v>1004.1015170271</v>
+        <v>1055.1802643788</v>
       </c>
       <c r="T35" t="n">
-        <v>1051.971903296725</v>
+        <v>1055.1802643788</v>
       </c>
       <c r="U35" t="n">
-        <v>1055.180264378799</v>
+        <v>1055.1802643788</v>
       </c>
       <c r="V35" t="n">
-        <v>1004.697694916788</v>
+        <v>1004.697694916789</v>
       </c>
       <c r="W35" t="n">
-        <v>937.0265595794085</v>
+        <v>937.0265595794092</v>
       </c>
       <c r="X35" t="n">
-        <v>847.2481005360298</v>
+        <v>847.2481005360305</v>
       </c>
       <c r="Y35" t="n">
-        <v>734.7394868222028</v>
+        <v>734.7394868222035</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>371.2959957935805</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="C36" t="n">
-        <v>181.8837215265442</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="D36" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="E36" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="F36" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="G36" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="H36" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="I36" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="J36" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="K36" t="n">
-        <v>57.46013672431157</v>
+        <v>57.4601367243116</v>
       </c>
       <c r="L36" t="n">
         <v>172.6325222502585</v>
@@ -7041,25 +7041,25 @@
         <v>765.1633819293326</v>
       </c>
       <c r="S36" t="n">
-        <v>765.1633819293326</v>
+        <v>571.4487503712628</v>
       </c>
       <c r="T36" t="n">
-        <v>765.1633819293326</v>
+        <v>354.2654812731948</v>
       </c>
       <c r="U36" t="n">
-        <v>765.1633819293326</v>
+        <v>240.6115996708796</v>
       </c>
       <c r="V36" t="n">
-        <v>765.1633819293326</v>
+        <v>240.6115996708796</v>
       </c>
       <c r="W36" t="n">
-        <v>765.1633819293326</v>
+        <v>240.6115996708796</v>
       </c>
       <c r="X36" t="n">
-        <v>765.1633819293326</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="Y36" t="n">
-        <v>549.8318487205156</v>
+        <v>21.10360528757599</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="C37" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="D37" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="E37" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="F37" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="G37" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="H37" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="I37" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="J37" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="K37" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="L37" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="M37" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="N37" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="O37" t="n">
-        <v>21.10360528757598</v>
+        <v>58.64263963081403</v>
       </c>
       <c r="P37" t="n">
-        <v>21.10360528757598</v>
+        <v>58.64263963081403</v>
       </c>
       <c r="Q37" t="n">
-        <v>21.10360528757598</v>
+        <v>58.64263963081403</v>
       </c>
       <c r="R37" t="n">
-        <v>21.10360528757598</v>
+        <v>58.64263963081403</v>
       </c>
       <c r="S37" t="n">
-        <v>21.10360528757598</v>
+        <v>58.64263963081403</v>
       </c>
       <c r="T37" t="n">
-        <v>58.64263963081402</v>
+        <v>58.64263963081403</v>
       </c>
       <c r="U37" t="n">
-        <v>40.70831967906503</v>
+        <v>40.70831967906504</v>
       </c>
       <c r="V37" t="n">
-        <v>40.70831967906503</v>
+        <v>40.70831967906504</v>
       </c>
       <c r="W37" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="X37" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
     </row>
     <row r="38">
@@ -7154,70 +7154,70 @@
         <v>550.4075089681733</v>
       </c>
       <c r="D38" t="n">
-        <v>482.861933412147</v>
+        <v>482.8619334121469</v>
       </c>
       <c r="E38" t="n">
-        <v>381.2691331900511</v>
+        <v>381.2691331900509</v>
       </c>
       <c r="F38" t="n">
-        <v>247.6355879392913</v>
+        <v>247.635587939291</v>
       </c>
       <c r="G38" t="n">
-        <v>98.18617533148733</v>
+        <v>98.18617533148746</v>
       </c>
       <c r="H38" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="I38" t="n">
-        <v>49.97997281012546</v>
+        <v>49.97997281012536</v>
       </c>
       <c r="J38" t="n">
-        <v>240.5807492992845</v>
+        <v>49.97997281012536</v>
       </c>
       <c r="K38" t="n">
-        <v>350.0536775846552</v>
+        <v>309.1473993683613</v>
       </c>
       <c r="L38" t="n">
-        <v>393.8396939432649</v>
+        <v>397.7866403848393</v>
       </c>
       <c r="M38" t="n">
-        <v>471.4360334888656</v>
+        <v>658.9437558185922</v>
       </c>
       <c r="N38" t="n">
-        <v>543.445526915795</v>
+        <v>730.9532492455216</v>
       </c>
       <c r="O38" t="n">
-        <v>804.6026423495476</v>
+        <v>992.1103646792745</v>
       </c>
       <c r="P38" t="n">
-        <v>1055.180264378799</v>
+        <v>992.1103646792745</v>
       </c>
       <c r="Q38" t="n">
-        <v>1055.180264378799</v>
+        <v>992.1103646792745</v>
       </c>
       <c r="R38" t="n">
-        <v>1055.180264378799</v>
+        <v>992.1103646792745</v>
       </c>
       <c r="S38" t="n">
-        <v>1055.180264378799</v>
+        <v>1034.637768813758</v>
       </c>
       <c r="T38" t="n">
-        <v>1055.180264378799</v>
+        <v>1034.637768813758</v>
       </c>
       <c r="U38" t="n">
-        <v>1055.180264378799</v>
+        <v>1055.1802643788</v>
       </c>
       <c r="V38" t="n">
-        <v>1004.697694916788</v>
+        <v>1004.697694916789</v>
       </c>
       <c r="W38" t="n">
-        <v>937.0265595794087</v>
+        <v>937.0265595794091</v>
       </c>
       <c r="X38" t="n">
-        <v>847.2481005360301</v>
+        <v>847.2481005360303</v>
       </c>
       <c r="Y38" t="n">
-        <v>734.7394868222032</v>
+        <v>734.7394868222033</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>264.8282139005873</v>
+        <v>380.5926317394374</v>
       </c>
       <c r="C39" t="n">
-        <v>75.41593963355106</v>
+        <v>191.1803574724011</v>
       </c>
       <c r="D39" t="n">
-        <v>75.41593963355106</v>
+        <v>30.40024123343284</v>
       </c>
       <c r="E39" t="n">
-        <v>75.41593963355106</v>
+        <v>30.40024123343284</v>
       </c>
       <c r="F39" t="n">
-        <v>21.10360528757598</v>
+        <v>30.40024123343284</v>
       </c>
       <c r="G39" t="n">
-        <v>21.10360528757598</v>
+        <v>30.40024123343284</v>
       </c>
       <c r="H39" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="I39" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="J39" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="K39" t="n">
-        <v>57.46013672431157</v>
+        <v>57.4601367243116</v>
       </c>
       <c r="L39" t="n">
         <v>172.6325222502585</v>
@@ -7275,28 +7275,28 @@
         <v>756.9285696871787</v>
       </c>
       <c r="R39" t="n">
-        <v>756.9285696871787</v>
+        <v>620.2176122954486</v>
       </c>
       <c r="S39" t="n">
-        <v>756.9285696871787</v>
+        <v>620.2176122954486</v>
       </c>
       <c r="T39" t="n">
-        <v>756.9285696871787</v>
+        <v>620.2176122954486</v>
       </c>
       <c r="U39" t="n">
-        <v>756.9285696871787</v>
+        <v>380.5926317394374</v>
       </c>
       <c r="V39" t="n">
-        <v>756.9285696871787</v>
+        <v>380.5926317394374</v>
       </c>
       <c r="W39" t="n">
-        <v>490.4689069652597</v>
+        <v>380.5926317394374</v>
       </c>
       <c r="X39" t="n">
-        <v>490.4689069652597</v>
+        <v>380.5926317394374</v>
       </c>
       <c r="Y39" t="n">
-        <v>264.8282139005873</v>
+        <v>380.5926317394374</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="C40" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="D40" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="E40" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="F40" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="G40" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="H40" t="n">
-        <v>58.64263963081379</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="I40" t="n">
-        <v>58.64263963081379</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="J40" t="n">
-        <v>58.64263963081379</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="K40" t="n">
-        <v>58.64263963081379</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="L40" t="n">
-        <v>58.64263963081379</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="M40" t="n">
-        <v>58.64263963081379</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="N40" t="n">
-        <v>58.64263963081379</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="O40" t="n">
-        <v>58.64263963081379</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="P40" t="n">
-        <v>58.64263963081379</v>
+        <v>58.64263963081403</v>
       </c>
       <c r="Q40" t="n">
-        <v>58.64263963081379</v>
+        <v>58.64263963081403</v>
       </c>
       <c r="R40" t="n">
-        <v>58.64263963081379</v>
+        <v>58.64263963081403</v>
       </c>
       <c r="S40" t="n">
-        <v>58.64263963081379</v>
+        <v>58.64263963081403</v>
       </c>
       <c r="T40" t="n">
-        <v>58.64263963081379</v>
+        <v>58.64263963081403</v>
       </c>
       <c r="U40" t="n">
-        <v>40.70831967906491</v>
+        <v>40.70831967906504</v>
       </c>
       <c r="V40" t="n">
-        <v>40.70831967906491</v>
+        <v>40.70831967906504</v>
       </c>
       <c r="W40" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="X40" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="Y40" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>474.6955544673752</v>
+        <v>474.6955544673766</v>
       </c>
       <c r="C41" t="n">
-        <v>365.1283771522308</v>
+        <v>365.1283771522323</v>
       </c>
       <c r="D41" t="n">
-        <v>268.1201268461284</v>
+        <v>365.1283771522323</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1201268461284</v>
+        <v>365.1283771522323</v>
       </c>
       <c r="F41" t="n">
-        <v>268.1201268461284</v>
+        <v>202.0321571513965</v>
       </c>
       <c r="G41" t="n">
-        <v>89.20803948824894</v>
+        <v>127.6488500815633</v>
       </c>
       <c r="H41" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="I41" t="n">
-        <v>21.10360528757586</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="J41" t="n">
-        <v>152.3544751762134</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="K41" t="n">
-        <v>382.6455342118999</v>
+        <v>251.3946643232626</v>
       </c>
       <c r="L41" t="n">
-        <v>426.4315505705096</v>
+        <v>512.5517797570155</v>
       </c>
       <c r="M41" t="n">
-        <v>504.0278901161103</v>
+        <v>711.388333751673</v>
       </c>
       <c r="N41" t="n">
-        <v>576.0373835430397</v>
+        <v>783.3978271786025</v>
       </c>
       <c r="O41" t="n">
-        <v>607.1245474894598</v>
+        <v>814.4849911250226</v>
       </c>
       <c r="P41" t="n">
-        <v>828.8258019961615</v>
+        <v>1036.186245631724</v>
       </c>
       <c r="Q41" t="n">
-        <v>977.3195126910568</v>
+        <v>1036.186245631724</v>
       </c>
       <c r="R41" t="n">
-        <v>1022.53520901979</v>
+        <v>1036.186245631724</v>
       </c>
       <c r="S41" t="n">
         <v>1036.186245631724</v>
       </c>
       <c r="T41" t="n">
-        <v>1055.180264378799</v>
+        <v>1055.1802643788</v>
       </c>
       <c r="U41" t="n">
-        <v>1046.677181063313</v>
+        <v>1046.677181063314</v>
       </c>
       <c r="V41" t="n">
-        <v>966.7319368512261</v>
+        <v>966.7319368512271</v>
       </c>
       <c r="W41" t="n">
-        <v>869.5981267637707</v>
+        <v>869.5981267637718</v>
       </c>
       <c r="X41" t="n">
-        <v>750.356992970316</v>
+        <v>750.3569929703172</v>
       </c>
       <c r="Y41" t="n">
-        <v>608.3857045064129</v>
+        <v>608.3857045064142</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>671.9628326102994</v>
+        <v>274.6748883714515</v>
       </c>
       <c r="C42" t="n">
-        <v>482.5505583432631</v>
+        <v>85.26261410441518</v>
       </c>
       <c r="D42" t="n">
-        <v>321.7704421042949</v>
+        <v>85.26261410441518</v>
       </c>
       <c r="E42" t="n">
-        <v>148.2072382257093</v>
+        <v>85.26261410441518</v>
       </c>
       <c r="F42" t="n">
-        <v>148.2072382257093</v>
+        <v>85.26261410441518</v>
       </c>
       <c r="G42" t="n">
-        <v>148.2072382257093</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="H42" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="I42" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="J42" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="K42" t="n">
-        <v>57.46013672431157</v>
+        <v>57.4601367243116</v>
       </c>
       <c r="L42" t="n">
         <v>172.6325222502585</v>
@@ -7521,19 +7521,19 @@
         <v>765.1633819293326</v>
       </c>
       <c r="U42" t="n">
-        <v>765.1633819293326</v>
+        <v>525.5384013733213</v>
       </c>
       <c r="V42" t="n">
-        <v>765.1633819293326</v>
+        <v>525.5384013733213</v>
       </c>
       <c r="W42" t="n">
-        <v>671.9628326102994</v>
+        <v>500.3155814361238</v>
       </c>
       <c r="X42" t="n">
-        <v>671.9628326102994</v>
+        <v>500.3155814361238</v>
       </c>
       <c r="Y42" t="n">
-        <v>671.9628326102994</v>
+        <v>274.6748883714515</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>45.45039712234332</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="C43" t="n">
-        <v>45.45039712234332</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="D43" t="n">
-        <v>45.45039712234332</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="E43" t="n">
-        <v>45.45039712234332</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="F43" t="n">
-        <v>45.45039712234332</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="G43" t="n">
-        <v>45.45039712234332</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="H43" t="n">
-        <v>45.45039712234332</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="I43" t="n">
-        <v>45.45039712234332</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="J43" t="n">
-        <v>45.45039712234332</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="K43" t="n">
-        <v>45.45039712234332</v>
+        <v>83.43120895918659</v>
       </c>
       <c r="L43" t="n">
-        <v>45.45039712234332</v>
+        <v>83.43120895918659</v>
       </c>
       <c r="M43" t="n">
-        <v>45.45039712234332</v>
+        <v>83.43120895918659</v>
       </c>
       <c r="N43" t="n">
-        <v>45.45039712234332</v>
+        <v>83.43120895918659</v>
       </c>
       <c r="O43" t="n">
-        <v>45.45039712234332</v>
+        <v>83.43120895918659</v>
       </c>
       <c r="P43" t="n">
-        <v>45.45039712234332</v>
+        <v>83.43120895918659</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.13243234045783</v>
+        <v>83.43120895918659</v>
       </c>
       <c r="R43" t="n">
-        <v>97.13243234045783</v>
+        <v>120.9771036211313</v>
       </c>
       <c r="S43" t="n">
-        <v>103.220038518026</v>
+        <v>120.9771036211313</v>
       </c>
       <c r="T43" t="n">
-        <v>120.9771036211316</v>
+        <v>120.9771036211313</v>
       </c>
       <c r="U43" t="n">
-        <v>73.58010891930664</v>
+        <v>73.58010891930643</v>
       </c>
       <c r="V43" t="n">
-        <v>70.17099442914102</v>
+        <v>70.17099442914092</v>
       </c>
       <c r="W43" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="X43" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="Y43" t="n">
-        <v>45.45039712234332</v>
+        <v>21.10360528757599</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>807.2880600336965</v>
+        <v>474.6955544673767</v>
       </c>
       <c r="C44" t="n">
-        <v>697.7208827185527</v>
+        <v>365.1283771522326</v>
       </c>
       <c r="D44" t="n">
-        <v>600.7126324124505</v>
+        <v>268.1201268461303</v>
       </c>
       <c r="E44" t="n">
-        <v>469.6571574402786</v>
+        <v>268.1201268461303</v>
       </c>
       <c r="F44" t="n">
-        <v>306.5609374394428</v>
+        <v>200.0156926454553</v>
       </c>
       <c r="G44" t="n">
-        <v>127.6488500815633</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="H44" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="I44" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="J44" t="n">
-        <v>21.10360528757598</v>
+        <v>182.8280142541855</v>
       </c>
       <c r="K44" t="n">
-        <v>251.3946643232626</v>
+        <v>182.8280142541855</v>
       </c>
       <c r="L44" t="n">
-        <v>358.5063463900057</v>
+        <v>226.6140306127951</v>
       </c>
       <c r="M44" t="n">
-        <v>436.1026859356064</v>
+        <v>487.771146046548</v>
       </c>
       <c r="N44" t="n">
-        <v>508.1121793625358</v>
+        <v>748.9282614803009</v>
       </c>
       <c r="O44" t="n">
-        <v>769.2692947962885</v>
+        <v>1010.085376914054</v>
       </c>
       <c r="P44" t="n">
-        <v>990.9705493029902</v>
+        <v>1036.186245631724</v>
       </c>
       <c r="Q44" t="n">
-        <v>990.9705493029902</v>
+        <v>1036.186245631724</v>
       </c>
       <c r="R44" t="n">
         <v>1036.186245631724</v>
@@ -7676,22 +7676,22 @@
         <v>1036.186245631724</v>
       </c>
       <c r="T44" t="n">
-        <v>1055.180264378799</v>
+        <v>1055.1802643788</v>
       </c>
       <c r="U44" t="n">
-        <v>1055.180264378799</v>
+        <v>1046.677181063314</v>
       </c>
       <c r="V44" t="n">
-        <v>975.235020166712</v>
+        <v>966.7319368512271</v>
       </c>
       <c r="W44" t="n">
-        <v>878.1012100792567</v>
+        <v>869.5981267637719</v>
       </c>
       <c r="X44" t="n">
-        <v>878.1012100792567</v>
+        <v>750.3569929703173</v>
       </c>
       <c r="Y44" t="n">
-        <v>807.2880600336965</v>
+        <v>608.3857045064144</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>148.2072382257093</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="C45" t="n">
-        <v>148.2072382257093</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="D45" t="n">
-        <v>148.2072382257093</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="E45" t="n">
-        <v>148.2072382257093</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="F45" t="n">
-        <v>148.2072382257093</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="G45" t="n">
-        <v>148.2072382257093</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="H45" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="I45" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="J45" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="K45" t="n">
-        <v>57.46013672431156</v>
+        <v>57.46013672431155</v>
       </c>
       <c r="L45" t="n">
-        <v>172.6325222502585</v>
+        <v>172.6325222502584</v>
       </c>
       <c r="M45" t="n">
-        <v>351.7879280460178</v>
+        <v>351.7879280460177</v>
       </c>
       <c r="N45" t="n">
-        <v>554.1049339065229</v>
+        <v>554.1049339065228</v>
       </c>
       <c r="O45" t="n">
-        <v>683.4383860731612</v>
+        <v>683.438386073161</v>
       </c>
       <c r="P45" t="n">
-        <v>765.1633819293324</v>
+        <v>765.1633819293323</v>
       </c>
       <c r="Q45" t="n">
-        <v>765.1633819293324</v>
+        <v>765.1633819293323</v>
       </c>
       <c r="R45" t="n">
-        <v>628.4524245376024</v>
+        <v>765.1633819293323</v>
       </c>
       <c r="S45" t="n">
-        <v>434.7377929795326</v>
+        <v>765.1633819293323</v>
       </c>
       <c r="T45" t="n">
-        <v>434.7377929795326</v>
+        <v>765.1633819293323</v>
       </c>
       <c r="U45" t="n">
-        <v>195.1128124235214</v>
+        <v>765.1633819293323</v>
       </c>
       <c r="V45" t="n">
-        <v>195.1128124235214</v>
+        <v>691.7398140011026</v>
       </c>
       <c r="W45" t="n">
-        <v>148.2072382257093</v>
+        <v>425.2801512791834</v>
       </c>
       <c r="X45" t="n">
-        <v>148.2072382257093</v>
+        <v>425.2801512791834</v>
       </c>
       <c r="Y45" t="n">
-        <v>148.2072382257093</v>
+        <v>199.6394582145111</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.35869773511621</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="C46" t="n">
-        <v>27.35869773511621</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="D46" t="n">
-        <v>27.35869773511621</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="E46" t="n">
-        <v>27.35869773511621</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="F46" t="n">
-        <v>27.35869773511621</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="G46" t="n">
-        <v>27.35869773511621</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="H46" t="n">
-        <v>27.35869773511621</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="I46" t="n">
-        <v>103.2200385180256</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="J46" t="n">
-        <v>103.2200385180256</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="K46" t="n">
-        <v>103.2200385180256</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="L46" t="n">
-        <v>103.2200385180256</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="M46" t="n">
-        <v>103.2200385180256</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="N46" t="n">
-        <v>103.2200385180256</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="O46" t="n">
-        <v>103.2200385180256</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="P46" t="n">
-        <v>103.2200385180256</v>
+        <v>114.8894974435629</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.2200385180256</v>
+        <v>114.8894974435629</v>
       </c>
       <c r="R46" t="n">
-        <v>103.2200385180256</v>
+        <v>114.8894974435629</v>
       </c>
       <c r="S46" t="n">
-        <v>103.2200385180256</v>
+        <v>120.9771036211312</v>
       </c>
       <c r="T46" t="n">
-        <v>120.9771036211313</v>
+        <v>120.9771036211312</v>
       </c>
       <c r="U46" t="n">
-        <v>73.58010891930641</v>
+        <v>73.58010891930637</v>
       </c>
       <c r="V46" t="n">
-        <v>70.1709944291409</v>
+        <v>70.17099442914089</v>
       </c>
       <c r="W46" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="X46" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
       <c r="Y46" t="n">
-        <v>21.10360528757598</v>
+        <v>21.10360528757599</v>
       </c>
     </row>
   </sheetData>
@@ -7985,10 +7985,10 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M2" t="n">
-        <v>284.221654177286</v>
+        <v>284.2216541772862</v>
       </c>
       <c r="N2" t="n">
-        <v>283.0831872278542</v>
+        <v>283.0831872278544</v>
       </c>
       <c r="O2" t="n">
         <v>246.758517458259</v>
@@ -8058,22 +8058,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K3" t="n">
-        <v>171.3658051887313</v>
+        <v>168.166555548718</v>
       </c>
       <c r="L3" t="n">
-        <v>172.2355929714598</v>
+        <v>172.2355929714599</v>
       </c>
       <c r="M3" t="n">
-        <v>176.6027710248757</v>
+        <v>176.4735084131581</v>
       </c>
       <c r="N3" t="n">
-        <v>163.3068757699623</v>
+        <v>163.4361383816801</v>
       </c>
       <c r="O3" t="n">
         <v>173.9674182222222</v>
       </c>
       <c r="P3" t="n">
-        <v>163.4487770454829</v>
+        <v>166.6480266854963</v>
       </c>
       <c r="Q3" t="n">
         <v>136.1300824528302</v>
@@ -8295,7 +8295,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K6" t="n">
-        <v>171.3658051887314</v>
+        <v>171.2365425770137</v>
       </c>
       <c r="L6" t="n">
         <v>172.23559297146</v>
@@ -8304,13 +8304,13 @@
         <v>176.6027710248758</v>
       </c>
       <c r="N6" t="n">
-        <v>163.3068757699624</v>
+        <v>160.2368887416667</v>
       </c>
       <c r="O6" t="n">
         <v>173.9674182222222</v>
       </c>
       <c r="P6" t="n">
-        <v>163.4487770454829</v>
+        <v>166.6480266854964</v>
       </c>
       <c r="Q6" t="n">
         <v>136.1300824528302</v>
@@ -8538,10 +8538,10 @@
         <v>169.0363433314465</v>
       </c>
       <c r="M9" t="n">
-        <v>173.5713770459633</v>
+        <v>176.9203908159872</v>
       </c>
       <c r="N9" t="n">
-        <v>163.7537581727915</v>
+        <v>160.4047444027676</v>
       </c>
       <c r="O9" t="n">
         <v>177.484287653347</v>
@@ -8775,13 +8775,13 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>301.7768813100007</v>
+        <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>291.1483902056634</v>
+        <v>291.1483902056632</v>
       </c>
       <c r="O12" t="n">
-        <v>255.2227828913207</v>
+        <v>255.2227828913208</v>
       </c>
       <c r="P12" t="n">
         <v>206.3638740786793</v>
@@ -9015,7 +9015,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>291.1483902056634</v>
+        <v>291.1483902056632</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9252,7 +9252,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>291.1483902056634</v>
+        <v>291.1483902056632</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9489,7 +9489,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>291.1483902056634</v>
+        <v>291.1483902056632</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>16.04564245459841</v>
+        <v>16.04564245459829</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>115.8705189158557</v>
+        <v>174.5119830833353</v>
       </c>
       <c r="C11" t="n">
-        <v>150.6302400866808</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>138.1969023477293</v>
+        <v>138.1969023477292</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>171.9036547671381</v>
       </c>
       <c r="F11" t="n">
-        <v>203.6239923455155</v>
+        <v>203.6239923455154</v>
       </c>
       <c r="G11" t="n">
         <v>219.2817010289886</v>
       </c>
       <c r="H11" t="n">
-        <v>147.6385268907356</v>
+        <v>147.6385268907355</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.15873454468797</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>22.97285702238987</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>121.304526314654</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>138.3212065312689</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>114.579262430908</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>174.5119830833353</v>
+        <v>174.5119830833352</v>
       </c>
       <c r="C14" t="n">
-        <v>150.6302400866808</v>
+        <v>150.6302400866807</v>
       </c>
       <c r="D14" t="n">
-        <v>79.97799691498767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>171.9036547671382</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>203.6239923455155</v>
+        <v>203.6239923455153</v>
       </c>
       <c r="G14" t="n">
-        <v>34.38655741763977</v>
+        <v>192.5722479086104</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>147.6385268907354</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>22.97285702238978</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>121.304526314654</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>138.3212065312689</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>160.2074570002081</v>
+        <v>160.207457000208</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>182.7103101239517</v>
       </c>
     </row>
     <row r="15">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -25631,19 +25631,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>96.03816780304123</v>
       </c>
       <c r="E41" t="n">
-        <v>129.7449202224502</v>
+        <v>129.7449202224501</v>
       </c>
       <c r="F41" t="n">
-        <v>161.4652578008275</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>103.483492485166</v>
       </c>
       <c r="H41" t="n">
-        <v>38.05640248738136</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>132.3532485386473</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,16 +25871,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>129.7449202224501</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>94.04186794215926</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>105.4797923460475</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>8.418052482330747</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,10 +25928,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>118.0487224555201</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>70.44655703415927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>648953.6602424004</v>
+        <v>648953.6602424005</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>882441.3157191504</v>
+        <v>882441.31571915</v>
       </c>
       <c r="C2" t="n">
         <v>882441.3157191499</v>
       </c>
       <c r="D2" t="n">
-        <v>882466.5982545224</v>
+        <v>882466.5982545223</v>
       </c>
       <c r="E2" t="n">
-        <v>785423.0867474059</v>
+        <v>785423.0867474062</v>
       </c>
       <c r="F2" t="n">
-        <v>785423.0867474058</v>
+        <v>785423.0867474069</v>
       </c>
       <c r="G2" t="n">
-        <v>883718.548858537</v>
+        <v>883718.5488585366</v>
       </c>
       <c r="H2" t="n">
+        <v>883718.5488585364</v>
+      </c>
+      <c r="I2" t="n">
+        <v>883718.5488585368</v>
+      </c>
+      <c r="J2" t="n">
+        <v>883718.5488585371</v>
+      </c>
+      <c r="K2" t="n">
+        <v>883718.5488585362</v>
+      </c>
+      <c r="L2" t="n">
         <v>883718.5488585363</v>
       </c>
-      <c r="I2" t="n">
-        <v>883718.5488585364</v>
-      </c>
-      <c r="J2" t="n">
-        <v>883718.548858537</v>
-      </c>
-      <c r="K2" t="n">
-        <v>883718.5488585366</v>
-      </c>
-      <c r="L2" t="n">
-        <v>883718.5488585358</v>
-      </c>
       <c r="M2" t="n">
-        <v>883718.5488585369</v>
+        <v>883718.5488585368</v>
       </c>
       <c r="N2" t="n">
-        <v>883718.5488585369</v>
+        <v>883718.5488585368</v>
       </c>
       <c r="O2" t="n">
-        <v>857508.929049888</v>
+        <v>857508.9290498886</v>
       </c>
       <c r="P2" t="n">
-        <v>857508.9290498885</v>
+        <v>857508.9290498883</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1072.142137110179</v>
+        <v>1072.142137110217</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,10 +26375,10 @@
         <v>291342.9731201812</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>79330.14015951157</v>
+        <v>79330.14015951144</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>79395.8798333967</v>
+        <v>79395.87983339657</v>
       </c>
       <c r="M3" t="n">
-        <v>45073.15996584107</v>
+        <v>45073.15996584109</v>
       </c>
       <c r="N3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>68918.15367211093</v>
+        <v>68918.15367211121</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,7 +26430,7 @@
         <v>289246.9311139979</v>
       </c>
       <c r="G4" t="n">
-        <v>345246.9254433845</v>
+        <v>345246.9254433844</v>
       </c>
       <c r="H4" t="n">
         <v>345246.9254433844</v>
@@ -26451,13 +26451,13 @@
         <v>345138.5572689479</v>
       </c>
       <c r="N4" t="n">
-        <v>345138.557268948</v>
+        <v>345138.5572689479</v>
       </c>
       <c r="O4" t="n">
-        <v>330198.3998382697</v>
+        <v>330198.3998382698</v>
       </c>
       <c r="P4" t="n">
-        <v>330198.3998382698</v>
+        <v>330198.3998382699</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33822.1143781128</v>
+        <v>33822.11437811281</v>
       </c>
       <c r="C5" t="n">
         <v>33822.11437811282</v>
@@ -26479,7 +26479,7 @@
         <v>30123.38489442977</v>
       </c>
       <c r="F5" t="n">
-        <v>30123.38489442977</v>
+        <v>30123.38489442978</v>
       </c>
       <c r="G5" t="n">
         <v>38459.89183576724</v>
@@ -26494,22 +26494,22 @@
         <v>47220.5041245754</v>
       </c>
       <c r="K5" t="n">
-        <v>47220.50412457539</v>
+        <v>47220.50412457538</v>
       </c>
       <c r="L5" t="n">
         <v>47208.10117708063</v>
       </c>
       <c r="M5" t="n">
-        <v>40916.87146338337</v>
+        <v>40916.87146338339</v>
       </c>
       <c r="N5" t="n">
         <v>40916.87146338339</v>
       </c>
       <c r="O5" t="n">
-        <v>38464.74283585488</v>
+        <v>38464.74283585489</v>
       </c>
       <c r="P5" t="n">
-        <v>38464.74283585489</v>
+        <v>38464.7428358549</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>459887.7653618384</v>
+        <v>459884.5722789896</v>
       </c>
       <c r="C6" t="n">
-        <v>460959.9074989482</v>
+        <v>460956.7144160997</v>
       </c>
       <c r="D6" t="n">
-        <v>460908.2825508671</v>
+        <v>460905.1526743569</v>
       </c>
       <c r="E6" t="n">
-        <v>174709.7976187971</v>
+        <v>174464.0589635195</v>
       </c>
       <c r="F6" t="n">
-        <v>466052.7707389782</v>
+        <v>465807.0320837012</v>
       </c>
       <c r="G6" t="n">
-        <v>420681.5914198736</v>
+        <v>420681.5914198735</v>
       </c>
       <c r="H6" t="n">
-        <v>500011.7315793846</v>
+        <v>500011.7315793847</v>
       </c>
       <c r="I6" t="n">
-        <v>500011.7315793847</v>
+        <v>500011.7315793851</v>
       </c>
       <c r="J6" t="n">
         <v>329292.1997072499</v>
       </c>
       <c r="K6" t="n">
-        <v>490565.1880547025</v>
+        <v>490565.188054702</v>
       </c>
       <c r="L6" t="n">
-        <v>411183.1795088412</v>
+        <v>411183.1795088418</v>
       </c>
       <c r="M6" t="n">
-        <v>452589.9601603645</v>
+        <v>452589.9601603643</v>
       </c>
       <c r="N6" t="n">
         <v>497663.1201262054</v>
       </c>
       <c r="O6" t="n">
-        <v>419927.6327036526</v>
+        <v>419862.1086541311</v>
       </c>
       <c r="P6" t="n">
-        <v>488845.7863757638</v>
+        <v>488780.2623262419</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="F2" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="G2" t="n">
         <v>298.7379324938875</v>
@@ -26719,13 +26719,13 @@
         <v>270.9020398417612</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9020398417613</v>
+        <v>270.9020398417612</v>
       </c>
       <c r="O2" t="n">
-        <v>241.7339918391859</v>
+        <v>241.733991839186</v>
       </c>
       <c r="P2" t="n">
-        <v>241.733991839186</v>
+        <v>241.7339918391861</v>
       </c>
     </row>
     <row r="3">
@@ -26765,19 +26765,19 @@
         <v>96.49852556736757</v>
       </c>
       <c r="L3" t="n">
-        <v>96.49852556736755</v>
+        <v>96.49852556736757</v>
       </c>
       <c r="M3" t="n">
-        <v>96.49852556736755</v>
+        <v>96.49852556736757</v>
       </c>
       <c r="N3" t="n">
-        <v>96.49852556736755</v>
+        <v>96.49852556736757</v>
       </c>
       <c r="O3" t="n">
-        <v>96.49852556736755</v>
+        <v>96.49852556736757</v>
       </c>
       <c r="P3" t="n">
-        <v>96.49852556736751</v>
+        <v>96.49852556736744</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.199249640013306</v>
+        <v>3.19924964001342</v>
       </c>
       <c r="C4" t="n">
         <v>3.199249640013477</v>
@@ -26796,22 +26796,22 @@
         <v>3.516869431124803</v>
       </c>
       <c r="E4" t="n">
-        <v>184.8951436113489</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="F4" t="n">
-        <v>184.8951436113489</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="G4" t="n">
-        <v>184.8951436113489</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="H4" t="n">
-        <v>184.8951436113489</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="I4" t="n">
         <v>184.8951436113487</v>
       </c>
       <c r="J4" t="n">
-        <v>445.4909600660353</v>
+        <v>445.4909600660351</v>
       </c>
       <c r="K4" t="n">
         <v>445.4909600660351</v>
@@ -26820,16 +26820,16 @@
         <v>445.1733402749238</v>
       </c>
       <c r="M4" t="n">
-        <v>263.7950660946997</v>
+        <v>263.7950660946999</v>
       </c>
       <c r="N4" t="n">
-        <v>263.7950660946997</v>
+        <v>263.7950660946999</v>
       </c>
       <c r="O4" t="n">
-        <v>263.7950660946997</v>
+        <v>263.7950660946999</v>
       </c>
       <c r="P4" t="n">
-        <v>263.7950660946997</v>
+        <v>263.7950660946999</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>99.16267519938947</v>
+        <v>99.1626751993893</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>115.315740092714</v>
+        <v>115.3157400927141</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>99.24484979174588</v>
+        <v>99.24484979174571</v>
       </c>
       <c r="M2" t="n">
-        <v>56.34144995730134</v>
+        <v>56.34144995730136</v>
       </c>
       <c r="N2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>86.14769209013866</v>
+        <v>86.147692090139</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.199249640013306</v>
+        <v>3.19924964001342</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0.3176197911113263</v>
       </c>
       <c r="E4" t="n">
-        <v>181.3782741802241</v>
+        <v>181.3782741802239</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>99.16267519938947</v>
+        <v>99.1626751993893</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>115.315740092714</v>
+        <v>115.3157400927141</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.199249640013306</v>
+        <v>3.19924964001342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0.3176197911113263</v>
       </c>
       <c r="M4" t="n">
-        <v>181.3782741802241</v>
+        <v>181.3782741802239</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27415,7 +27415,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.09121592938986</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P2" t="n">
         <v>73.5786919263081</v>
@@ -27442,7 +27442,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X2" t="n">
-        <v>359.7827142947061</v>
+        <v>359.9126297478971</v>
       </c>
       <c r="Y2" t="n">
         <v>382.2855674184499</v>
@@ -27509,22 +27509,22 @@
         <v>195.63287444794</v>
       </c>
       <c r="T3" t="n">
-        <v>212.6488107764741</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U3" t="n">
-        <v>234.0431365621691</v>
+        <v>234.4244871192585</v>
       </c>
       <c r="V3" t="n">
-        <v>240.6489209154022</v>
+        <v>237.4496712753888</v>
       </c>
       <c r="W3" t="n">
-        <v>263.5053339369983</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X3" t="n">
-        <v>214.4950153565469</v>
+        <v>214.1136647994572</v>
       </c>
       <c r="Y3" t="n">
-        <v>223.3842861340256</v>
+        <v>220.1850364940122</v>
       </c>
     </row>
     <row r="4">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>374.0872403778333</v>
+        <v>374.2171558310243</v>
       </c>
       <c r="C5" t="n">
         <v>350.2054973811788</v>
@@ -27667,7 +27667,7 @@
         <v>236.785106778059</v>
       </c>
       <c r="T5" t="n">
-        <v>224.3762098531791</v>
+        <v>224.246294399988</v>
       </c>
       <c r="U5" t="n">
         <v>250.1830790232068</v>
@@ -27701,10 +27701,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E6" t="n">
-        <v>171.8275718397997</v>
+        <v>168.6283221997862</v>
       </c>
       <c r="F6" t="n">
-        <v>156.0055400370045</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G6" t="n">
         <v>148.9622183950918</v>
@@ -27740,16 +27740,16 @@
         <v>31.44843229210258</v>
       </c>
       <c r="R6" t="n">
-        <v>145.0317031582867</v>
+        <v>148.2309527983001</v>
       </c>
       <c r="S6" t="n">
-        <v>192.4336248079265</v>
+        <v>192.8149753650161</v>
       </c>
       <c r="T6" t="n">
         <v>215.8480604164874</v>
       </c>
       <c r="U6" t="n">
-        <v>237.2423862021824</v>
+        <v>234.0431365621689</v>
       </c>
       <c r="V6" t="n">
         <v>240.6489209154022</v>
@@ -27862,7 +27862,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F8" t="n">
-        <v>399.8223516122474</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27910,7 +27910,7 @@
         <v>250.1830790232068</v>
       </c>
       <c r="V8" t="n">
-        <v>320.879783609152</v>
+        <v>320.7021352213994</v>
       </c>
       <c r="W8" t="n">
         <v>337.8964638257669</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.7504943976657</v>
+        <v>173.652835802731</v>
       </c>
       <c r="C9" t="n">
         <v>187.5181515243659</v>
@@ -27980,10 +27980,10 @@
         <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>192.1160050168152</v>
       </c>
       <c r="T9" t="n">
-        <v>212.3311909853626</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
         <v>233.7255167710576</v>
@@ -27992,7 +27992,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W9" t="n">
-        <v>263.6069249820769</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X9" t="n">
         <v>217.3129144394706</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="C11" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="D11" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="E11" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="F11" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="G11" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="H11" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="I11" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="J11" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="K11" t="n">
         <v>9.116760490007628</v>
       </c>
       <c r="L11" t="n">
-        <v>140.6668442592179</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>106.5150026561964</v>
       </c>
       <c r="N11" t="n">
-        <v>112.1582815639454</v>
+        <v>92.35371600502093</v>
       </c>
       <c r="O11" t="n">
-        <v>19.99060678937466</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>17.79333072130542</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.575257294498</v>
+        <v>91.74034467262496</v>
       </c>
       <c r="R11" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="S11" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="T11" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="U11" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="V11" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="W11" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="X11" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="Y11" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
     </row>
     <row r="12">
@@ -28181,7 +28181,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>148.7546555287771</v>
       </c>
       <c r="H12" t="n">
         <v>125.832596608752</v>
@@ -28190,7 +28190,7 @@
         <v>107.7094663750393</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>53.42477458325159</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.152464119732418</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>14.59901830186857</v>
+        <v>137.2726869637275</v>
       </c>
       <c r="T12" t="n">
-        <v>199.575257294498</v>
+        <v>30.11629279573866</v>
       </c>
       <c r="U12" t="n">
-        <v>199.575257294498</v>
+        <v>52.33358713910247</v>
       </c>
       <c r="V12" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="W12" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="X12" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="Y12" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
     </row>
     <row r="13">
@@ -28260,10 +28260,10 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7092013933153</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="H13" t="n">
-        <v>165.8993165992778</v>
+        <v>178.9831545166319</v>
       </c>
       <c r="I13" t="n">
         <v>165.1063748867523</v>
@@ -28272,7 +28272,7 @@
         <v>120.8353587406202</v>
       </c>
       <c r="K13" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="L13" t="n">
         <v>33.40460195387641</v>
@@ -28281,10 +28281,10 @@
         <v>26.53775227203412</v>
       </c>
       <c r="N13" t="n">
-        <v>199.575257294498</v>
+        <v>17.80963650490606</v>
       </c>
       <c r="O13" t="n">
-        <v>61.75953032344368</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="P13" t="n">
         <v>59.49774168052281</v>
@@ -28293,28 +28293,28 @@
         <v>127.9225875984685</v>
       </c>
       <c r="R13" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="S13" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="T13" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="U13" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="V13" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="W13" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="X13" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
       <c r="Y13" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944981</v>
       </c>
     </row>
     <row r="14">
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="C14" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="D14" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="E14" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="F14" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="G14" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="H14" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="I14" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="J14" t="n">
-        <v>199.575257294498</v>
+        <v>78.37600298402486</v>
       </c>
       <c r="K14" t="n">
-        <v>194.0119041013565</v>
+        <v>140.9931839305646</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28360,40 +28360,40 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>112.1582815639452</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>153.493967907894</v>
       </c>
       <c r="P14" t="n">
-        <v>199.575257294498</v>
+        <v>17.79333072130542</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.2276057118808</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="R14" t="n">
         <v>196.0615713051118</v>
       </c>
       <c r="S14" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="T14" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="U14" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="V14" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="W14" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="X14" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="Y14" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
     </row>
     <row r="15">
@@ -28412,7 +28412,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>131.1672181774633</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
@@ -28424,10 +28424,10 @@
         <v>125.832596608752</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>107.7094663750393</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>53.42477458325159</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28457,22 +28457,22 @@
         <v>191.777485242489</v>
       </c>
       <c r="T15" t="n">
-        <v>156.6615517862488</v>
+        <v>30.11629279573866</v>
       </c>
       <c r="U15" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="V15" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="W15" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="X15" t="n">
-        <v>32.41777082812175</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="Y15" t="n">
-        <v>199.575257294498</v>
+        <v>38.48914252267696</v>
       </c>
     </row>
     <row r="16">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>177.6169206649681</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="C16" t="n">
         <v>166.4571809719723</v>
@@ -28506,10 +28506,10 @@
         <v>165.1063748867523</v>
       </c>
       <c r="J16" t="n">
-        <v>120.8353587406202</v>
+        <v>142.8269159296262</v>
       </c>
       <c r="K16" t="n">
-        <v>68.00898229883376</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="L16" t="n">
         <v>33.40460195387641</v>
@@ -28518,10 +28518,10 @@
         <v>26.53775227203412</v>
       </c>
       <c r="N16" t="n">
-        <v>193.325805319108</v>
+        <v>17.80963650490606</v>
       </c>
       <c r="O16" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="P16" t="n">
         <v>59.49774168052281</v>
@@ -28530,28 +28530,28 @@
         <v>127.9225875984685</v>
       </c>
       <c r="R16" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="S16" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="T16" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="U16" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="V16" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="W16" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="X16" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
       <c r="Y16" t="n">
-        <v>199.575257294498</v>
+        <v>199.5752572944982</v>
       </c>
     </row>
     <row r="17">
@@ -28582,16 +28582,16 @@
         <v>298.7379324938875</v>
       </c>
       <c r="I17" t="n">
-        <v>298.7379324938875</v>
+        <v>241.733991839186</v>
       </c>
       <c r="J17" t="n">
-        <v>98.49729880425139</v>
+        <v>263.2711465953736</v>
       </c>
       <c r="K17" t="n">
-        <v>9.116760490007628</v>
+        <v>56.71247980732229</v>
       </c>
       <c r="L17" t="n">
-        <v>140.6668442592179</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -28600,25 +28600,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>153.493967907894</v>
       </c>
       <c r="P17" t="n">
-        <v>202.6884743326543</v>
+        <v>17.79333072130542</v>
       </c>
       <c r="Q17" t="n">
         <v>91.74034467262496</v>
       </c>
       <c r="R17" t="n">
+        <v>196.0615713051118</v>
+      </c>
+      <c r="S17" t="n">
         <v>298.7379324938875</v>
-      </c>
-      <c r="S17" t="n">
-        <v>227.9450659685459</v>
       </c>
       <c r="T17" t="n">
         <v>222.5481143168879</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1520443215168</v>
+        <v>298.7379324938875</v>
       </c>
       <c r="V17" t="n">
         <v>298.7379324938875</v>
@@ -28643,7 +28643,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>2.623007913017062</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -28664,7 +28664,7 @@
         <v>107.7094663750393</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>53.42477458325159</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28688,19 +28688,19 @@
         <v>8.152464119732418</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>135.3438478178128</v>
       </c>
       <c r="S18" t="n">
-        <v>6.88234163114015</v>
+        <v>28.92184274961309</v>
       </c>
       <c r="T18" t="n">
-        <v>56.02927270392755</v>
+        <v>30.11629279573863</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2287307504511</v>
+        <v>52.33358713910244</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>55.75377730405356</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28819,10 +28819,10 @@
         <v>298.7379324938875</v>
       </c>
       <c r="I20" t="n">
-        <v>298.7379324938875</v>
+        <v>241.733991839186</v>
       </c>
       <c r="J20" t="n">
-        <v>263.2711465953737</v>
+        <v>263.2711465953735</v>
       </c>
       <c r="K20" t="n">
         <v>9.116760490007628</v>
@@ -28834,19 +28834,19 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>112.1582815639452</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>47.776800205806</v>
+        <v>17.79333072130542</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.6354882839738</v>
+        <v>276.6354882839736</v>
       </c>
       <c r="R20" t="n">
-        <v>196.0615713051118</v>
+        <v>219.4765880527387</v>
       </c>
       <c r="S20" t="n">
         <v>227.9450659685459</v>
@@ -28855,7 +28855,7 @@
         <v>222.5481143168879</v>
       </c>
       <c r="U20" t="n">
-        <v>298.7379324938875</v>
+        <v>250.1520443215168</v>
       </c>
       <c r="V20" t="n">
         <v>298.7379324938875</v>
@@ -28880,13 +28880,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>160.006356849303</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>144.3157771647372</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28928,22 +28928,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>191.777485242489</v>
+        <v>6.882341631140354</v>
       </c>
       <c r="T21" t="n">
-        <v>30.11629279573846</v>
+        <v>30.11629279573866</v>
       </c>
       <c r="U21" t="n">
         <v>237.2287307504511</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>55.75377730405359</v>
       </c>
       <c r="W21" t="n">
-        <v>81.80943996566273</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>32.41777082812175</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -29056,43 +29056,43 @@
         <v>298.7379324938875</v>
       </c>
       <c r="I23" t="n">
-        <v>298.7379324938875</v>
+        <v>241.733991839186</v>
       </c>
       <c r="J23" t="n">
-        <v>263.2711465953736</v>
+        <v>78.37600298402486</v>
       </c>
       <c r="K23" t="n">
-        <v>194.0119041013563</v>
+        <v>9.116760490007628</v>
       </c>
       <c r="L23" t="n">
-        <v>78.56935765687084</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>93.01637438477498</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>17.79333072130542</v>
+        <v>202.6884743326541</v>
       </c>
       <c r="Q23" t="n">
         <v>91.74034467262496</v>
       </c>
       <c r="R23" t="n">
-        <v>196.0615713051118</v>
+        <v>298.7379324938875</v>
       </c>
       <c r="S23" t="n">
         <v>227.9450659685459</v>
       </c>
       <c r="T23" t="n">
-        <v>222.5481143168879</v>
+        <v>298.7379324938875</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1520443215168</v>
+        <v>298.7379324938875</v>
       </c>
       <c r="V23" t="n">
         <v>298.7379324938875</v>
@@ -29114,13 +29114,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77.86413189620022</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>2.623007913017233</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -29129,10 +29129,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>148.7546555287771</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>125.832596608752</v>
       </c>
       <c r="I24" t="n">
         <v>107.7094663750393</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.152464119732418</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>135.3438478178128</v>
@@ -29168,16 +29168,16 @@
         <v>191.777485242489</v>
       </c>
       <c r="T24" t="n">
-        <v>215.0114364070873</v>
+        <v>30.11629279573864</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2287307504511</v>
+        <v>52.33358713910246</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>85.94574254225887</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>81.80943996566293</v>
       </c>
       <c r="X24" t="n">
         <v>217.3129144394706</v>
@@ -29354,7 +29354,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29405,22 +29405,22 @@
         <v>191.777485242489</v>
       </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
         <v>214.4784152921035</v>
       </c>
-      <c r="U27" t="n">
-        <v>20.23644747179904</v>
-      </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>214.4784152921035</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>207.754598996165</v>
       </c>
       <c r="X27" t="n">
         <v>214.4784152921035</v>
       </c>
       <c r="Y27" t="n">
-        <v>214.4784152921035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29457,25 +29457,25 @@
         <v>120.8353587406202</v>
       </c>
       <c r="K28" t="n">
-        <v>68.00898229883376</v>
+        <v>207.1148393084956</v>
       </c>
       <c r="L28" t="n">
         <v>33.40460195387641</v>
       </c>
       <c r="M28" t="n">
-        <v>214.4784152921035</v>
+        <v>26.53775227203412</v>
       </c>
       <c r="N28" t="n">
         <v>17.80963650490606</v>
       </c>
       <c r="O28" t="n">
-        <v>76.39094837099969</v>
+        <v>38.66992668777222</v>
       </c>
       <c r="P28" t="n">
         <v>59.49774168052281</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.9225875984685</v>
+        <v>214.4784152921035</v>
       </c>
       <c r="R28" t="n">
         <v>203.8088457160096</v>
@@ -29588,7 +29588,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9.477771179544391</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -29597,13 +29597,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7546555287771</v>
       </c>
       <c r="H30" t="n">
         <v>125.832596608752</v>
@@ -29636,16 +29636,16 @@
         <v>8.152464119732418</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>135.3438478178128</v>
       </c>
       <c r="S30" t="n">
-        <v>191.777485242489</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>214.4784152921034</v>
       </c>
       <c r="U30" t="n">
-        <v>214.4784152921034</v>
+        <v>156.3589565421134</v>
       </c>
       <c r="V30" t="n">
         <v>214.4784152921034</v>
@@ -29657,7 +29657,7 @@
         <v>214.4784152921034</v>
       </c>
       <c r="Y30" t="n">
-        <v>214.4784152921034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29685,16 +29685,16 @@
         <v>168.7092013933153</v>
       </c>
       <c r="H31" t="n">
-        <v>214.4784152921034</v>
+        <v>165.8993165992778</v>
       </c>
       <c r="I31" t="n">
         <v>165.1063748867523</v>
       </c>
       <c r="J31" t="n">
-        <v>200.692547481363</v>
+        <v>120.8353587406202</v>
       </c>
       <c r="K31" t="n">
-        <v>68.00898229883376</v>
+        <v>214.4784152921034</v>
       </c>
       <c r="L31" t="n">
         <v>33.40460195387641</v>
@@ -29712,7 +29712,7 @@
         <v>59.49774168052281</v>
       </c>
       <c r="Q31" t="n">
-        <v>214.4784152921034</v>
+        <v>196.4452697324024</v>
       </c>
       <c r="R31" t="n">
         <v>214.4784152921034</v>
@@ -29776,7 +29776,7 @@
         <v>214.5605898844598</v>
       </c>
       <c r="L32" t="n">
-        <v>212.5633725116801</v>
+        <v>212.5633725116805</v>
       </c>
       <c r="M32" t="n">
         <v>214.5605898844598</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>8.152464119732421</v>
+        <v>8.152464119732418</v>
       </c>
       <c r="R33" t="n">
         <v>135.3438478178128</v>
@@ -29879,16 +29879,16 @@
         <v>191.777485242489</v>
       </c>
       <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>214.5605898844598</v>
       </c>
-      <c r="U33" t="n">
-        <v>19.98992369473015</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>196.7404180923958</v>
       </c>
       <c r="X33" t="n">
         <v>214.5605898844598</v>
@@ -29925,7 +29925,7 @@
         <v>165.8993165992778</v>
       </c>
       <c r="I34" t="n">
-        <v>165.1063748867523</v>
+        <v>214.5605898844598</v>
       </c>
       <c r="J34" t="n">
         <v>120.8353587406202</v>
@@ -29934,7 +29934,7 @@
         <v>68.00898229883376</v>
       </c>
       <c r="L34" t="n">
-        <v>33.40460195387642</v>
+        <v>209.0251701733988</v>
       </c>
       <c r="M34" t="n">
         <v>26.53775227203412</v>
@@ -29943,10 +29943,10 @@
         <v>17.80963650490606</v>
       </c>
       <c r="O34" t="n">
-        <v>108.6818617010648</v>
+        <v>38.66992668777222</v>
       </c>
       <c r="P34" t="n">
-        <v>214.5605898844598</v>
+        <v>59.49774168052281</v>
       </c>
       <c r="Q34" t="n">
         <v>127.9225875984685</v>
@@ -30004,16 +30004,16 @@
         <v>270.9020398417612</v>
       </c>
       <c r="I35" t="n">
-        <v>270.9020398417612</v>
+        <v>241.733991839186</v>
       </c>
       <c r="J35" t="n">
-        <v>78.37600298402488</v>
+        <v>78.37600298402486</v>
       </c>
       <c r="K35" t="n">
         <v>270.9020398417612</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>101.4775610264312</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30022,10 +30022,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>232.3938903912453</v>
       </c>
       <c r="P35" t="n">
-        <v>270.9020398417612</v>
+        <v>17.79333072130542</v>
       </c>
       <c r="Q35" t="n">
         <v>270.9020398417612</v>
@@ -30037,10 +30037,10 @@
         <v>270.9020398417612</v>
       </c>
       <c r="T35" t="n">
-        <v>270.9020398417612</v>
+        <v>222.5481143168879</v>
       </c>
       <c r="U35" t="n">
-        <v>253.3928130912886</v>
+        <v>250.1520443215168</v>
       </c>
       <c r="V35" t="n">
         <v>270.9020398417612</v>
@@ -30062,13 +30062,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
@@ -30107,19 +30107,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>8.152464119732421</v>
+        <v>8.152464119732418</v>
       </c>
       <c r="R36" t="n">
         <v>135.3438478178128</v>
       </c>
       <c r="S36" t="n">
-        <v>191.777485242489</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>215.0114364070873</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2287307504511</v>
+        <v>124.7113879641591</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -30128,10 +30128,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>10.20606825729683</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -30171,7 +30171,7 @@
         <v>68.00898229883376</v>
       </c>
       <c r="L37" t="n">
-        <v>33.40460195387642</v>
+        <v>33.40460195387641</v>
       </c>
       <c r="M37" t="n">
         <v>26.53775227203412</v>
@@ -30180,7 +30180,7 @@
         <v>17.80963650490606</v>
       </c>
       <c r="O37" t="n">
-        <v>38.66992668777223</v>
+        <v>76.58814319609348</v>
       </c>
       <c r="P37" t="n">
         <v>59.49774168052281</v>
@@ -30195,7 +30195,7 @@
         <v>235.5848946901271</v>
       </c>
       <c r="T37" t="n">
-        <v>261.7157789504308</v>
+        <v>223.7975624421096</v>
       </c>
       <c r="U37" t="n">
         <v>270.9020398417612</v>
@@ -30220,49 +30220,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>270.9020398417613</v>
+        <v>270.9020398417612</v>
       </c>
       <c r="C38" t="n">
-        <v>270.9020398417613</v>
+        <v>270.9020398417612</v>
       </c>
       <c r="D38" t="n">
-        <v>270.9020398417613</v>
+        <v>270.9020398417612</v>
       </c>
       <c r="E38" t="n">
-        <v>270.9020398417613</v>
+        <v>270.9020398417612</v>
       </c>
       <c r="F38" t="n">
-        <v>270.9020398417613</v>
+        <v>270.9020398417612</v>
       </c>
       <c r="G38" t="n">
-        <v>270.9020398417613</v>
+        <v>270.9020398417612</v>
       </c>
       <c r="H38" t="n">
-        <v>270.9020398417613</v>
+        <v>270.9020398417612</v>
       </c>
       <c r="I38" t="n">
-        <v>270.9020398417613</v>
+        <v>270.9020398417612</v>
       </c>
       <c r="J38" t="n">
-        <v>270.9020398417613</v>
+        <v>78.37600298402486</v>
       </c>
       <c r="K38" t="n">
-        <v>119.695475929776</v>
+        <v>270.9020398417612</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>45.3062875332003</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>185.4149251395477</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>232.3938903912451</v>
+        <v>232.3938903912453</v>
       </c>
       <c r="P38" t="n">
-        <v>270.9020398417613</v>
+        <v>17.79333072130542</v>
       </c>
       <c r="Q38" t="n">
         <v>91.74034467262496</v>
@@ -30271,25 +30271,25 @@
         <v>196.0615713051118</v>
       </c>
       <c r="S38" t="n">
-        <v>227.9450659685459</v>
+        <v>270.9020398417612</v>
       </c>
       <c r="T38" t="n">
         <v>222.5481143168879</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1520443215168</v>
+        <v>270.9020398417612</v>
       </c>
       <c r="V38" t="n">
-        <v>270.9020398417613</v>
+        <v>270.9020398417612</v>
       </c>
       <c r="W38" t="n">
-        <v>270.9020398417613</v>
+        <v>270.9020398417612</v>
       </c>
       <c r="X38" t="n">
-        <v>270.9020398417613</v>
+        <v>270.9020398417612</v>
       </c>
       <c r="Y38" t="n">
-        <v>270.9020398417613</v>
+        <v>270.9020398417612</v>
       </c>
     </row>
     <row r="39">
@@ -30305,19 +30305,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>105.054228117413</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7546555287771</v>
       </c>
       <c r="H39" t="n">
-        <v>125.832596608752</v>
+        <v>116.6289270223537</v>
       </c>
       <c r="I39" t="n">
         <v>107.7094663750393</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>135.3438478178128</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>191.777485242489</v>
@@ -30356,19 +30356,19 @@
         <v>215.0114364070873</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2287307504511</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>2.909517482311855</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30396,7 +30396,7 @@
         <v>168.7092013933153</v>
       </c>
       <c r="H40" t="n">
-        <v>203.8175331075988</v>
+        <v>165.8993165992778</v>
       </c>
       <c r="I40" t="n">
         <v>165.1063748867523</v>
@@ -30408,7 +30408,7 @@
         <v>68.00898229883376</v>
       </c>
       <c r="L40" t="n">
-        <v>33.40460195387642</v>
+        <v>33.40460195387641</v>
       </c>
       <c r="M40" t="n">
         <v>26.53775227203412</v>
@@ -30417,10 +30417,10 @@
         <v>17.80963650490606</v>
       </c>
       <c r="O40" t="n">
-        <v>38.66992668777223</v>
+        <v>38.66992668777222</v>
       </c>
       <c r="P40" t="n">
-        <v>59.49774168052281</v>
+        <v>97.41595818884406</v>
       </c>
       <c r="Q40" t="n">
         <v>127.9225875984685</v>
@@ -30435,13 +30435,13 @@
         <v>223.7975624421096</v>
       </c>
       <c r="U40" t="n">
-        <v>270.9020398417613</v>
+        <v>270.9020398417612</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
-        <v>270.9020398417613</v>
+        <v>270.9020398417612</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30457,40 +30457,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>241.7339918391859</v>
+        <v>241.733991839186</v>
       </c>
       <c r="C41" t="n">
-        <v>241.7339918391859</v>
+        <v>241.733991839186</v>
       </c>
       <c r="D41" t="n">
-        <v>241.7339918391859</v>
+        <v>241.733991839186</v>
       </c>
       <c r="E41" t="n">
-        <v>241.7339918391859</v>
+        <v>241.733991839186</v>
       </c>
       <c r="F41" t="n">
-        <v>241.7339918391859</v>
+        <v>241.733991839186</v>
       </c>
       <c r="G41" t="n">
-        <v>241.7339918391859</v>
+        <v>241.733991839186</v>
       </c>
       <c r="H41" t="n">
-        <v>241.7339918391859</v>
+        <v>241.733991839186</v>
       </c>
       <c r="I41" t="n">
-        <v>241.7339918391859</v>
+        <v>241.733991839186</v>
       </c>
       <c r="J41" t="n">
-        <v>210.9526392351739</v>
+        <v>78.37600298402486</v>
       </c>
       <c r="K41" t="n">
-        <v>241.7339918391859</v>
+        <v>241.733991839186</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>219.5667667425689</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>122.4648630798553</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30499,34 +30499,34 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>241.7339918391859</v>
+        <v>241.733991839186</v>
       </c>
       <c r="Q41" t="n">
-        <v>241.7339918391859</v>
+        <v>91.74034467262496</v>
       </c>
       <c r="R41" t="n">
-        <v>241.7339918391859</v>
+        <v>196.0615713051118</v>
       </c>
       <c r="S41" t="n">
-        <v>241.7339918391859</v>
+        <v>227.9450659685459</v>
       </c>
       <c r="T41" t="n">
-        <v>241.7339918391859</v>
+        <v>241.733991839186</v>
       </c>
       <c r="U41" t="n">
-        <v>241.7339918391859</v>
+        <v>241.733991839186</v>
       </c>
       <c r="V41" t="n">
-        <v>241.7339918391859</v>
+        <v>241.733991839186</v>
       </c>
       <c r="W41" t="n">
-        <v>241.7339918391859</v>
+        <v>241.733991839186</v>
       </c>
       <c r="X41" t="n">
-        <v>241.7339918391859</v>
+        <v>241.733991839186</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.7339918391859</v>
+        <v>241.733991839186</v>
       </c>
     </row>
     <row r="42">
@@ -30542,19 +30542,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7546555287771</v>
+        <v>85.23723680010633</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.832596608752</v>
       </c>
       <c r="I42" t="n">
         <v>107.7094663750393</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>8.152464119732421</v>
+        <v>8.152464119732418</v>
       </c>
       <c r="R42" t="n">
         <v>135.3438478178128</v>
@@ -30593,19 +30593,19 @@
         <v>215.0114364070873</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2287307504511</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>174.4360397511688</v>
+        <v>241.733991839186</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30642,10 +30642,10 @@
         <v>120.8353587406202</v>
       </c>
       <c r="K43" t="n">
-        <v>68.00898229883376</v>
+        <v>130.9661577247031</v>
       </c>
       <c r="L43" t="n">
-        <v>33.40460195387642</v>
+        <v>33.40460195387641</v>
       </c>
       <c r="M43" t="n">
         <v>26.53775227203412</v>
@@ -30654,37 +30654,37 @@
         <v>17.80963650490606</v>
       </c>
       <c r="O43" t="n">
-        <v>38.66992668777223</v>
+        <v>38.66992668777222</v>
       </c>
       <c r="P43" t="n">
         <v>59.49774168052281</v>
       </c>
       <c r="Q43" t="n">
-        <v>180.1266635763619</v>
+        <v>127.9225875984685</v>
       </c>
       <c r="R43" t="n">
-        <v>203.8088457160096</v>
+        <v>241.733991839186</v>
       </c>
       <c r="S43" t="n">
-        <v>241.7339918391859</v>
+        <v>235.5848946901271</v>
       </c>
       <c r="T43" t="n">
-        <v>241.7339918391859</v>
+        <v>223.7975624421096</v>
       </c>
       <c r="U43" t="n">
-        <v>241.7339918391859</v>
+        <v>241.733991839186</v>
       </c>
       <c r="V43" t="n">
-        <v>241.7339918391859</v>
+        <v>241.733991839186</v>
       </c>
       <c r="W43" t="n">
-        <v>241.7339918391859</v>
+        <v>241.733991839186</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>241.7339918391859</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="44">
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.733991839186</v>
+        <v>241.7339918391861</v>
       </c>
       <c r="C44" t="n">
-        <v>241.733991839186</v>
+        <v>241.7339918391861</v>
       </c>
       <c r="D44" t="n">
-        <v>241.733991839186</v>
+        <v>241.7339918391861</v>
       </c>
       <c r="E44" t="n">
-        <v>241.733991839186</v>
+        <v>241.7339918391861</v>
       </c>
       <c r="F44" t="n">
-        <v>241.733991839186</v>
+        <v>241.7339918391861</v>
       </c>
       <c r="G44" t="n">
-        <v>241.733991839186</v>
+        <v>241.7339918391861</v>
       </c>
       <c r="H44" t="n">
-        <v>241.733991839186</v>
+        <v>241.7339918391861</v>
       </c>
       <c r="I44" t="n">
-        <v>241.733991839186</v>
+        <v>241.7339918391861</v>
       </c>
       <c r="J44" t="n">
-        <v>78.37600298402489</v>
+        <v>241.7339918391861</v>
       </c>
       <c r="K44" t="n">
-        <v>241.733991839186</v>
+        <v>9.116760490007692</v>
       </c>
       <c r="L44" t="n">
-        <v>63.96531889710454</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>185.4149251395478</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>191.0582040472966</v>
       </c>
       <c r="O44" t="n">
-        <v>232.3938903912451</v>
+        <v>232.3938903912453</v>
       </c>
       <c r="P44" t="n">
-        <v>241.733991839186</v>
+        <v>44.15784457753849</v>
       </c>
       <c r="Q44" t="n">
-        <v>91.74034467262499</v>
+        <v>91.74034467262501</v>
       </c>
       <c r="R44" t="n">
-        <v>241.733991839186</v>
+        <v>196.0615713051118</v>
       </c>
       <c r="S44" t="n">
         <v>227.9450659685459</v>
       </c>
       <c r="T44" t="n">
-        <v>241.733991839186</v>
+        <v>241.7339918391861</v>
       </c>
       <c r="U44" t="n">
-        <v>241.733991839186</v>
+        <v>241.7339918391861</v>
       </c>
       <c r="V44" t="n">
-        <v>241.733991839186</v>
+        <v>241.7339918391861</v>
       </c>
       <c r="W44" t="n">
-        <v>241.733991839186</v>
+        <v>241.7339918391861</v>
       </c>
       <c r="X44" t="n">
-        <v>241.733991839186</v>
+        <v>241.7339918391861</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.733991839186</v>
+        <v>241.7339918391861</v>
       </c>
     </row>
     <row r="45">
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
@@ -30791,13 +30791,13 @@
         <v>148.7546555287771</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.832596608752</v>
       </c>
       <c r="I45" t="n">
         <v>107.7094663750393</v>
       </c>
       <c r="J45" t="n">
-        <v>53.4247745832516</v>
+        <v>53.42477458325161</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,31 +30818,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>8.152464119732432</v>
+        <v>8.152464119732453</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>135.3438478178128</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.777485242489</v>
       </c>
       <c r="T45" t="n">
         <v>215.0114364070873</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2287307504511</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>167.9595886664548</v>
       </c>
       <c r="W45" t="n">
-        <v>220.2680651211777</v>
+        <v>2.909517482311685</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.9351958645037</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
@@ -30873,28 +30873,28 @@
         <v>165.8993165992778</v>
       </c>
       <c r="I46" t="n">
-        <v>241.733991839186</v>
+        <v>165.1063748867523</v>
       </c>
       <c r="J46" t="n">
         <v>120.8353587406202</v>
       </c>
       <c r="K46" t="n">
-        <v>68.00898229883377</v>
+        <v>68.00898229883379</v>
       </c>
       <c r="L46" t="n">
-        <v>33.40460195387642</v>
+        <v>33.40460195387645</v>
       </c>
       <c r="M46" t="n">
-        <v>26.53775227203413</v>
+        <v>26.53775227203415</v>
       </c>
       <c r="N46" t="n">
-        <v>17.80963650490607</v>
+        <v>17.80963650490609</v>
       </c>
       <c r="O46" t="n">
-        <v>38.66992668777223</v>
+        <v>38.66992668777225</v>
       </c>
       <c r="P46" t="n">
-        <v>59.49774168052282</v>
+        <v>154.2309660805096</v>
       </c>
       <c r="Q46" t="n">
         <v>127.9225875984685</v>
@@ -30903,19 +30903,19 @@
         <v>203.8088457160096</v>
       </c>
       <c r="S46" t="n">
-        <v>235.5848946901271</v>
+        <v>241.7339918391861</v>
       </c>
       <c r="T46" t="n">
-        <v>241.733991839186</v>
+        <v>223.7975624421096</v>
       </c>
       <c r="U46" t="n">
-        <v>241.733991839186</v>
+        <v>241.7339918391861</v>
       </c>
       <c r="V46" t="n">
-        <v>241.733991839186</v>
+        <v>241.7339918391861</v>
       </c>
       <c r="W46" t="n">
-        <v>241.733991839186</v>
+        <v>241.7339918391861</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -33412,22 +33412,22 @@
         <v>0.3879337711250954</v>
       </c>
       <c r="H32" t="n">
-        <v>3.972926733534884</v>
+        <v>3.972926733534885</v>
       </c>
       <c r="I32" t="n">
-        <v>14.95581671130025</v>
+        <v>14.95581671130026</v>
       </c>
       <c r="J32" t="n">
-        <v>32.92539390702859</v>
+        <v>32.9253939070286</v>
       </c>
       <c r="K32" t="n">
-        <v>49.34663043875389</v>
+        <v>49.3466304387539</v>
       </c>
       <c r="L32" t="n">
-        <v>61.21885858682354</v>
+        <v>61.21885858682355</v>
       </c>
       <c r="M32" t="n">
-        <v>68.11777578906946</v>
+        <v>68.11777578906947</v>
       </c>
       <c r="N32" t="n">
         <v>69.21999261627865</v>
@@ -33442,10 +33442,10 @@
         <v>41.89248302658518</v>
       </c>
       <c r="R32" t="n">
-        <v>24.36854475043679</v>
+        <v>24.3685447504368</v>
       </c>
       <c r="S32" t="n">
-        <v>8.84004080951312</v>
+        <v>8.840040809513122</v>
       </c>
       <c r="T32" t="n">
         <v>1.698180083100106</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2075628663147151</v>
+        <v>0.2075628663147152</v>
       </c>
       <c r="H33" t="n">
         <v>2.004620314144749</v>
       </c>
       <c r="I33" t="n">
-        <v>7.146353072677693</v>
+        <v>7.146353072677694</v>
       </c>
       <c r="J33" t="n">
         <v>19.61013904949684</v>
@@ -33503,19 +33503,19 @@
         <v>33.51685109258275</v>
       </c>
       <c r="L33" t="n">
-        <v>45.06754253030689</v>
+        <v>45.0675425303069</v>
       </c>
       <c r="M33" t="n">
-        <v>52.59169643421531</v>
+        <v>52.59169643421532</v>
       </c>
       <c r="N33" t="n">
         <v>53.98364214735216</v>
       </c>
       <c r="O33" t="n">
-        <v>49.38448600427347</v>
+        <v>49.38448600427348</v>
       </c>
       <c r="P33" t="n">
-        <v>39.6354038316231</v>
+        <v>39.63540383162311</v>
       </c>
       <c r="Q33" t="n">
         <v>26.49521781238364</v>
@@ -33527,10 +33527,10 @@
         <v>3.855389205450956</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8366240094001014</v>
+        <v>0.8366240094001015</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01365545173123126</v>
+        <v>0.01365545173123127</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,7 +33573,7 @@
         <v>1.547140295162058</v>
       </c>
       <c r="I34" t="n">
-        <v>5.233067583227081</v>
+        <v>5.233067583227082</v>
       </c>
       <c r="J34" t="n">
         <v>12.30277103831832</v>
@@ -33582,7 +33582,7 @@
         <v>20.21723207788454</v>
       </c>
       <c r="L34" t="n">
-        <v>25.87109651030703</v>
+        <v>25.87109651030704</v>
       </c>
       <c r="M34" t="n">
         <v>27.27744387472325</v>
@@ -33594,22 +33594,22 @@
         <v>24.59605041838412</v>
       </c>
       <c r="P34" t="n">
-        <v>21.04617023193864</v>
+        <v>21.04617023193865</v>
       </c>
       <c r="Q34" t="n">
         <v>14.5712773606725</v>
       </c>
       <c r="R34" t="n">
-        <v>7.824290286167209</v>
+        <v>7.82429028616721</v>
       </c>
       <c r="S34" t="n">
         <v>3.032584811682681</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7435132297813563</v>
+        <v>0.7435132297813564</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009491658252527966</v>
+        <v>0.009491658252527967</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,22 +33649,22 @@
         <v>0.3879337711250954</v>
       </c>
       <c r="H35" t="n">
-        <v>3.972926733534884</v>
+        <v>3.972926733534885</v>
       </c>
       <c r="I35" t="n">
-        <v>14.95581671130025</v>
+        <v>14.95581671130026</v>
       </c>
       <c r="J35" t="n">
-        <v>32.92539390702859</v>
+        <v>32.9253939070286</v>
       </c>
       <c r="K35" t="n">
-        <v>49.34663043875389</v>
+        <v>49.3466304387539</v>
       </c>
       <c r="L35" t="n">
-        <v>61.21885858682354</v>
+        <v>61.21885858682355</v>
       </c>
       <c r="M35" t="n">
-        <v>68.11777578906946</v>
+        <v>68.11777578906947</v>
       </c>
       <c r="N35" t="n">
         <v>69.21999261627865</v>
@@ -33679,10 +33679,10 @@
         <v>41.89248302658518</v>
       </c>
       <c r="R35" t="n">
-        <v>24.36854475043679</v>
+        <v>24.3685447504368</v>
       </c>
       <c r="S35" t="n">
-        <v>8.84004080951312</v>
+        <v>8.840040809513122</v>
       </c>
       <c r="T35" t="n">
         <v>1.698180083100106</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2075628663147151</v>
+        <v>0.2075628663147152</v>
       </c>
       <c r="H36" t="n">
         <v>2.004620314144749</v>
       </c>
       <c r="I36" t="n">
-        <v>7.146353072677693</v>
+        <v>7.146353072677694</v>
       </c>
       <c r="J36" t="n">
         <v>19.61013904949684</v>
@@ -33740,19 +33740,19 @@
         <v>33.51685109258275</v>
       </c>
       <c r="L36" t="n">
-        <v>45.06754253030689</v>
+        <v>45.0675425303069</v>
       </c>
       <c r="M36" t="n">
-        <v>52.59169643421531</v>
+        <v>52.59169643421532</v>
       </c>
       <c r="N36" t="n">
         <v>53.98364214735216</v>
       </c>
       <c r="O36" t="n">
-        <v>49.38448600427347</v>
+        <v>49.38448600427348</v>
       </c>
       <c r="P36" t="n">
-        <v>39.6354038316231</v>
+        <v>39.63540383162311</v>
       </c>
       <c r="Q36" t="n">
         <v>26.49521781238364</v>
@@ -33764,10 +33764,10 @@
         <v>3.855389205450956</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8366240094001014</v>
+        <v>0.8366240094001015</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01365545173123126</v>
+        <v>0.01365545173123127</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,7 +33810,7 @@
         <v>1.547140295162058</v>
       </c>
       <c r="I37" t="n">
-        <v>5.233067583227081</v>
+        <v>5.233067583227082</v>
       </c>
       <c r="J37" t="n">
         <v>12.30277103831832</v>
@@ -33819,7 +33819,7 @@
         <v>20.21723207788454</v>
       </c>
       <c r="L37" t="n">
-        <v>25.87109651030703</v>
+        <v>25.87109651030704</v>
       </c>
       <c r="M37" t="n">
         <v>27.27744387472325</v>
@@ -33831,22 +33831,22 @@
         <v>24.59605041838412</v>
       </c>
       <c r="P37" t="n">
-        <v>21.04617023193864</v>
+        <v>21.04617023193865</v>
       </c>
       <c r="Q37" t="n">
         <v>14.5712773606725</v>
       </c>
       <c r="R37" t="n">
-        <v>7.824290286167209</v>
+        <v>7.82429028616721</v>
       </c>
       <c r="S37" t="n">
         <v>3.032584811682681</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7435132297813563</v>
+        <v>0.7435132297813564</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009491658252527966</v>
+        <v>0.009491658252527967</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,22 +33886,22 @@
         <v>0.3879337711250954</v>
       </c>
       <c r="H38" t="n">
-        <v>3.972926733534884</v>
+        <v>3.972926733534885</v>
       </c>
       <c r="I38" t="n">
-        <v>14.95581671130025</v>
+        <v>14.95581671130026</v>
       </c>
       <c r="J38" t="n">
-        <v>32.92539390702859</v>
+        <v>32.9253939070286</v>
       </c>
       <c r="K38" t="n">
-        <v>49.34663043875389</v>
+        <v>49.3466304387539</v>
       </c>
       <c r="L38" t="n">
-        <v>61.21885858682354</v>
+        <v>61.21885858682355</v>
       </c>
       <c r="M38" t="n">
-        <v>68.11777578906946</v>
+        <v>68.11777578906947</v>
       </c>
       <c r="N38" t="n">
         <v>69.21999261627865</v>
@@ -33916,10 +33916,10 @@
         <v>41.89248302658518</v>
       </c>
       <c r="R38" t="n">
-        <v>24.36854475043679</v>
+        <v>24.3685447504368</v>
       </c>
       <c r="S38" t="n">
-        <v>8.84004080951312</v>
+        <v>8.840040809513122</v>
       </c>
       <c r="T38" t="n">
         <v>1.698180083100106</v>
@@ -33962,13 +33962,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2075628663147151</v>
+        <v>0.2075628663147152</v>
       </c>
       <c r="H39" t="n">
         <v>2.004620314144749</v>
       </c>
       <c r="I39" t="n">
-        <v>7.146353072677693</v>
+        <v>7.146353072677694</v>
       </c>
       <c r="J39" t="n">
         <v>19.61013904949684</v>
@@ -33977,19 +33977,19 @@
         <v>33.51685109258275</v>
       </c>
       <c r="L39" t="n">
-        <v>45.06754253030689</v>
+        <v>45.0675425303069</v>
       </c>
       <c r="M39" t="n">
-        <v>52.59169643421531</v>
+        <v>52.59169643421532</v>
       </c>
       <c r="N39" t="n">
         <v>53.98364214735216</v>
       </c>
       <c r="O39" t="n">
-        <v>49.38448600427347</v>
+        <v>49.38448600427348</v>
       </c>
       <c r="P39" t="n">
-        <v>39.6354038316231</v>
+        <v>39.63540383162311</v>
       </c>
       <c r="Q39" t="n">
         <v>26.49521781238364</v>
@@ -34001,10 +34001,10 @@
         <v>3.855389205450956</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8366240094001014</v>
+        <v>0.8366240094001015</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01365545173123126</v>
+        <v>0.01365545173123127</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,7 +34047,7 @@
         <v>1.547140295162058</v>
       </c>
       <c r="I40" t="n">
-        <v>5.233067583227081</v>
+        <v>5.233067583227082</v>
       </c>
       <c r="J40" t="n">
         <v>12.30277103831832</v>
@@ -34056,7 +34056,7 @@
         <v>20.21723207788454</v>
       </c>
       <c r="L40" t="n">
-        <v>25.87109651030703</v>
+        <v>25.87109651030704</v>
       </c>
       <c r="M40" t="n">
         <v>27.27744387472325</v>
@@ -34068,22 +34068,22 @@
         <v>24.59605041838412</v>
       </c>
       <c r="P40" t="n">
-        <v>21.04617023193864</v>
+        <v>21.04617023193865</v>
       </c>
       <c r="Q40" t="n">
         <v>14.5712773606725</v>
       </c>
       <c r="R40" t="n">
-        <v>7.824290286167209</v>
+        <v>7.82429028616721</v>
       </c>
       <c r="S40" t="n">
         <v>3.032584811682681</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7435132297813563</v>
+        <v>0.7435132297813564</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009491658252527966</v>
+        <v>0.009491658252527967</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,22 +34123,22 @@
         <v>0.3879337711250954</v>
       </c>
       <c r="H41" t="n">
-        <v>3.972926733534884</v>
+        <v>3.972926733534885</v>
       </c>
       <c r="I41" t="n">
-        <v>14.95581671130025</v>
+        <v>14.95581671130026</v>
       </c>
       <c r="J41" t="n">
-        <v>32.92539390702859</v>
+        <v>32.9253939070286</v>
       </c>
       <c r="K41" t="n">
-        <v>49.34663043875389</v>
+        <v>49.3466304387539</v>
       </c>
       <c r="L41" t="n">
-        <v>61.21885858682354</v>
+        <v>61.21885858682355</v>
       </c>
       <c r="M41" t="n">
-        <v>68.11777578906946</v>
+        <v>68.11777578906947</v>
       </c>
       <c r="N41" t="n">
         <v>69.21999261627865</v>
@@ -34153,10 +34153,10 @@
         <v>41.89248302658518</v>
       </c>
       <c r="R41" t="n">
-        <v>24.36854475043679</v>
+        <v>24.3685447504368</v>
       </c>
       <c r="S41" t="n">
-        <v>8.84004080951312</v>
+        <v>8.840040809513122</v>
       </c>
       <c r="T41" t="n">
         <v>1.698180083100106</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2075628663147151</v>
+        <v>0.2075628663147152</v>
       </c>
       <c r="H42" t="n">
         <v>2.004620314144749</v>
       </c>
       <c r="I42" t="n">
-        <v>7.146353072677693</v>
+        <v>7.146353072677694</v>
       </c>
       <c r="J42" t="n">
         <v>19.61013904949684</v>
@@ -34214,19 +34214,19 @@
         <v>33.51685109258275</v>
       </c>
       <c r="L42" t="n">
-        <v>45.06754253030689</v>
+        <v>45.0675425303069</v>
       </c>
       <c r="M42" t="n">
-        <v>52.59169643421531</v>
+        <v>52.59169643421532</v>
       </c>
       <c r="N42" t="n">
         <v>53.98364214735216</v>
       </c>
       <c r="O42" t="n">
-        <v>49.38448600427347</v>
+        <v>49.38448600427348</v>
       </c>
       <c r="P42" t="n">
-        <v>39.6354038316231</v>
+        <v>39.63540383162311</v>
       </c>
       <c r="Q42" t="n">
         <v>26.49521781238364</v>
@@ -34238,10 +34238,10 @@
         <v>3.855389205450956</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8366240094001014</v>
+        <v>0.8366240094001015</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01365545173123126</v>
+        <v>0.01365545173123127</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,7 +34284,7 @@
         <v>1.547140295162058</v>
       </c>
       <c r="I43" t="n">
-        <v>5.233067583227081</v>
+        <v>5.233067583227082</v>
       </c>
       <c r="J43" t="n">
         <v>12.30277103831832</v>
@@ -34293,7 +34293,7 @@
         <v>20.21723207788454</v>
       </c>
       <c r="L43" t="n">
-        <v>25.87109651030703</v>
+        <v>25.87109651030704</v>
       </c>
       <c r="M43" t="n">
         <v>27.27744387472325</v>
@@ -34305,22 +34305,22 @@
         <v>24.59605041838412</v>
       </c>
       <c r="P43" t="n">
-        <v>21.04617023193864</v>
+        <v>21.04617023193865</v>
       </c>
       <c r="Q43" t="n">
         <v>14.5712773606725</v>
       </c>
       <c r="R43" t="n">
-        <v>7.824290286167209</v>
+        <v>7.82429028616721</v>
       </c>
       <c r="S43" t="n">
         <v>3.032584811682681</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7435132297813563</v>
+        <v>0.7435132297813564</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009491658252527966</v>
+        <v>0.009491658252527967</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3879337711250952</v>
+        <v>0.3879337711250949</v>
       </c>
       <c r="H44" t="n">
-        <v>3.972926733534882</v>
+        <v>3.97292673353488</v>
       </c>
       <c r="I44" t="n">
-        <v>14.95581671130025</v>
+        <v>14.95581671130024</v>
       </c>
       <c r="J44" t="n">
-        <v>32.92539390702858</v>
+        <v>32.92539390702856</v>
       </c>
       <c r="K44" t="n">
-        <v>49.34663043875387</v>
+        <v>49.34663043875383</v>
       </c>
       <c r="L44" t="n">
-        <v>61.21885858682352</v>
+        <v>61.21885858682347</v>
       </c>
       <c r="M44" t="n">
-        <v>68.11777578906943</v>
+        <v>68.11777578906937</v>
       </c>
       <c r="N44" t="n">
-        <v>69.2199926162786</v>
+        <v>69.21999261627856</v>
       </c>
       <c r="O44" t="n">
-        <v>65.36247617965344</v>
+        <v>65.36247617965338</v>
       </c>
       <c r="P44" t="n">
-        <v>55.78536120500264</v>
+        <v>55.7853612050026</v>
       </c>
       <c r="Q44" t="n">
-        <v>41.89248302658515</v>
+        <v>41.89248302658513</v>
       </c>
       <c r="R44" t="n">
-        <v>24.36854475043678</v>
+        <v>24.36854475043677</v>
       </c>
       <c r="S44" t="n">
-        <v>8.840040809513116</v>
+        <v>8.840040809513109</v>
       </c>
       <c r="T44" t="n">
-        <v>1.698180083100105</v>
+        <v>1.698180083100104</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03103470169000761</v>
+        <v>0.03103470169000759</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.207562866314715</v>
+        <v>0.2075628663147149</v>
       </c>
       <c r="H45" t="n">
-        <v>2.004620314144748</v>
+        <v>2.004620314144747</v>
       </c>
       <c r="I45" t="n">
-        <v>7.146353072677689</v>
+        <v>7.146353072677684</v>
       </c>
       <c r="J45" t="n">
-        <v>19.61013904949683</v>
+        <v>19.61013904949682</v>
       </c>
       <c r="K45" t="n">
-        <v>33.51685109258273</v>
+        <v>33.51685109258271</v>
       </c>
       <c r="L45" t="n">
-        <v>45.06754253030688</v>
+        <v>45.06754253030685</v>
       </c>
       <c r="M45" t="n">
-        <v>52.59169643421529</v>
+        <v>52.59169643421524</v>
       </c>
       <c r="N45" t="n">
-        <v>53.98364214735214</v>
+        <v>53.98364214735209</v>
       </c>
       <c r="O45" t="n">
-        <v>49.38448600427345</v>
+        <v>49.38448600427341</v>
       </c>
       <c r="P45" t="n">
-        <v>39.63540383162309</v>
+        <v>39.63540383162306</v>
       </c>
       <c r="Q45" t="n">
-        <v>26.49521781238363</v>
+        <v>26.4952178123836</v>
       </c>
       <c r="R45" t="n">
-        <v>12.88710498048731</v>
+        <v>12.8871049804873</v>
       </c>
       <c r="S45" t="n">
-        <v>3.855389205450954</v>
+        <v>3.855389205450951</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8366240094001011</v>
+        <v>0.8366240094001004</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01365545173123126</v>
+        <v>0.01365545173123125</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1740137346296791</v>
+        <v>0.174013734629679</v>
       </c>
       <c r="H46" t="n">
-        <v>1.547140295162057</v>
+        <v>1.547140295162056</v>
       </c>
       <c r="I46" t="n">
-        <v>5.233067583227078</v>
+        <v>5.233067583227075</v>
       </c>
       <c r="J46" t="n">
-        <v>12.30277103831831</v>
+        <v>12.3027710383183</v>
       </c>
       <c r="K46" t="n">
-        <v>20.21723207788453</v>
+        <v>20.21723207788451</v>
       </c>
       <c r="L46" t="n">
-        <v>25.87109651030702</v>
+        <v>25.871096510307</v>
       </c>
       <c r="M46" t="n">
-        <v>27.27744387472324</v>
+        <v>27.27744387472322</v>
       </c>
       <c r="N46" t="n">
-        <v>26.62884722746718</v>
+        <v>26.62884722746717</v>
       </c>
       <c r="O46" t="n">
-        <v>24.59605041838411</v>
+        <v>24.59605041838409</v>
       </c>
       <c r="P46" t="n">
-        <v>21.04617023193864</v>
+        <v>21.04617023193862</v>
       </c>
       <c r="Q46" t="n">
-        <v>14.57127736067249</v>
+        <v>14.57127736067248</v>
       </c>
       <c r="R46" t="n">
-        <v>7.824290286167205</v>
+        <v>7.8242902861672</v>
       </c>
       <c r="S46" t="n">
-        <v>3.032584811682679</v>
+        <v>3.032584811682677</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7435132297813559</v>
+        <v>0.7435132297813554</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009491658252527962</v>
+        <v>0.009491658252527955</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34705,13 +34705,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.199249640013306</v>
+        <v>3.19924964001342</v>
       </c>
       <c r="N2" t="n">
-        <v>3.199249640013306</v>
+        <v>3.19924964001342</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1299154531910318</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34738,7 +34738,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>0.1299154531910372</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3.199249640013306</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.199249640013306</v>
+        <v>3.19924964001342</v>
       </c>
       <c r="M3" t="n">
-        <v>3.199249640013306</v>
+        <v>3.069987028295706</v>
       </c>
       <c r="N3" t="n">
-        <v>3.069987028295597</v>
+        <v>3.19924964001342</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.19924964001342</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34909,7 +34909,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -34963,7 +34963,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>3.199249640013477</v>
+        <v>3.069987028295762</v>
       </c>
       <c r="L6" t="n">
         <v>3.199249640013477</v>
@@ -35024,13 +35024,13 @@
         <v>3.199249640013477</v>
       </c>
       <c r="N6" t="n">
-        <v>3.069987028295762</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1678556611008975</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="N9" t="n">
-        <v>3.516869431124803</v>
+        <v>0.167855661100898</v>
       </c>
       <c r="O9" t="n">
         <v>3.516869431124803</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>121.1992543104731</v>
+        <v>121.1992543104732</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>184.8951436113489</v>
+        <v>44.22829935213098</v>
       </c>
       <c r="M11" t="n">
-        <v>78.38014095515223</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="N11" t="n">
-        <v>184.8951436113489</v>
+        <v>165.0905780524244</v>
       </c>
       <c r="O11" t="n">
-        <v>51.3917824928293</v>
+        <v>31.40117570345464</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>181.7819265731927</v>
       </c>
       <c r="Q11" t="n">
-        <v>107.834912621873</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.513685989386232</v>
+        <v>3.513685989386317</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>116.3357429555019</v>
       </c>
       <c r="M12" t="n">
-        <v>180.9650563593536</v>
+        <v>180.9650563593529</v>
       </c>
       <c r="N12" t="n">
-        <v>184.8951436113489</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="O12" t="n">
-        <v>130.639850673372</v>
+        <v>130.6398506733721</v>
       </c>
       <c r="P12" t="n">
         <v>82.5505008648195</v>
@@ -35556,10 +35556,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>30.86605590118279</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>13.08383791735406</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>131.5662749956642</v>
+        <v>131.5662749956643</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -35577,10 +35577,10 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>181.7656207895919</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>23.08960363567147</v>
+        <v>160.9053306067259</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>121.1992543104731</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>184.8951436113489</v>
+        <v>131.876423440557</v>
       </c>
       <c r="L14" t="n">
         <v>44.22829935213098</v>
@@ -35656,16 +35656,16 @@
         <v>78.38014095515223</v>
       </c>
       <c r="N14" t="n">
-        <v>72.73686204740345</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="O14" t="n">
-        <v>31.40117570345464</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="P14" t="n">
-        <v>181.7819265731925</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>17.48726103925586</v>
+        <v>107.8349126218732</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>180.9650563593529</v>
       </c>
       <c r="N15" t="n">
-        <v>184.8951436113489</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="O15" t="n">
         <v>130.639850673372</v>
@@ -35778,7 +35778,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>21.95833662953007</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>21.99155718900595</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>131.5662749956644</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -35814,10 +35814,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>175.5161688142019</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>160.9053306067258</v>
+        <v>160.9053306067259</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35878,16 +35878,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>57.00394065470141</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>20.12129582022652</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>47.59571931731466</v>
       </c>
       <c r="L17" t="n">
-        <v>184.8951436113489</v>
+        <v>44.22829935213098</v>
       </c>
       <c r="M17" t="n">
         <v>78.38014095515223</v>
@@ -35896,25 +35896,25 @@
         <v>72.73686204740345</v>
       </c>
       <c r="O17" t="n">
-        <v>31.40117570345464</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="P17" t="n">
-        <v>184.8951436113489</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.6763611887757</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>70.79286652534158</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>48.58588817237067</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35972,7 +35972,7 @@
         <v>180.9650563593529</v>
       </c>
       <c r="N18" t="n">
-        <v>184.8951436113489</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="O18" t="n">
         <v>130.639850673372</v>
@@ -36115,10 +36115,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>57.00394065470141</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>184.8951436113489</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36130,19 +36130,19 @@
         <v>78.38014095515223</v>
       </c>
       <c r="N20" t="n">
-        <v>72.73686204740345</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="O20" t="n">
         <v>31.40117570345464</v>
       </c>
       <c r="P20" t="n">
-        <v>29.98346948450058</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>184.8951436113489</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>23.41501674762695</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36151,7 +36151,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>48.58588817237067</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>180.9650563593529</v>
       </c>
       <c r="N21" t="n">
-        <v>184.8951436113489</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="O21" t="n">
         <v>130.639850673372</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>57.00394065470141</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>184.8951436113487</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>184.8951436113487</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>122.7976570090018</v>
+        <v>44.22829935213098</v>
       </c>
       <c r="M23" t="n">
         <v>78.38014095515223</v>
       </c>
       <c r="N23" t="n">
-        <v>72.73686204740345</v>
+        <v>165.7532364321784</v>
       </c>
       <c r="O23" t="n">
         <v>31.40117570345464</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>184.8951436113487</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>102.6763611887757</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>76.18981817699952</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>48.58588817237067</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>139.1058570096619</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>187.9406630200693</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>37.72102168322748</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.555827693635</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.1024123080786</v>
+        <v>136.1024123080785</v>
       </c>
       <c r="K29" t="n">
         <v>205.3616548020958</v>
@@ -36841,19 +36841,19 @@
         <v>292.8585562472556</v>
       </c>
       <c r="N29" t="n">
-        <v>287.2152773395069</v>
+        <v>287.2152773395068</v>
       </c>
       <c r="O29" t="n">
-        <v>245.8795909955581</v>
+        <v>245.879590995558</v>
       </c>
       <c r="P29" t="n">
         <v>196.685084570798</v>
       </c>
       <c r="Q29" t="n">
-        <v>122.7380706194785</v>
+        <v>122.7380706194784</v>
       </c>
       <c r="R29" t="n">
-        <v>18.41684398699167</v>
+        <v>18.41684398699164</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36981,16 +36981,16 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>48.5790986928256</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.85718874074281</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>146.4694329932696</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -37008,10 +37008,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.55582769363494</v>
+        <v>68.52268213393396</v>
       </c>
       <c r="R31" t="n">
-        <v>10.66956957609386</v>
+        <v>10.66956957609383</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>136.184586900435</v>
+        <v>136.1845869004349</v>
       </c>
       <c r="K32" t="n">
         <v>205.4438293944522</v>
       </c>
       <c r="L32" t="n">
-        <v>256.7916718638111</v>
+        <v>256.7916718638115</v>
       </c>
       <c r="M32" t="n">
-        <v>292.9407308396121</v>
+        <v>292.940730839612</v>
       </c>
       <c r="N32" t="n">
-        <v>287.2974519318633</v>
+        <v>287.2974519318632</v>
       </c>
       <c r="O32" t="n">
-        <v>245.9617655879145</v>
+        <v>245.9617655879144</v>
       </c>
       <c r="P32" t="n">
         <v>196.7672591631544</v>
       </c>
       <c r="Q32" t="n">
-        <v>122.8202452118349</v>
+        <v>122.8202452118348</v>
       </c>
       <c r="R32" t="n">
-        <v>18.49901857934807</v>
+        <v>18.49901857934805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>36.72376912801575</v>
+        <v>36.72376912801576</v>
       </c>
       <c r="L33" t="n">
         <v>116.3357429555019</v>
@@ -37221,7 +37221,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>49.45421499770747</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>175.6205682195224</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37239,10 +37239,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>70.0119350132926</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>155.062848203937</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37300,28 +37300,28 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>29.16804800257512</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>261.7852793517535</v>
+        <v>261.7852793517536</v>
       </c>
       <c r="L35" t="n">
-        <v>44.22829935213097</v>
+        <v>145.7058603785622</v>
       </c>
       <c r="M35" t="n">
-        <v>78.38014095515221</v>
+        <v>78.38014095515223</v>
       </c>
       <c r="N35" t="n">
         <v>72.73686204740345</v>
       </c>
       <c r="O35" t="n">
-        <v>31.40117570345464</v>
+        <v>263.7950660946999</v>
       </c>
       <c r="P35" t="n">
-        <v>253.1087091204557</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>179.1616951691362</v>
@@ -37333,10 +37333,10 @@
         <v>42.95697387321528</v>
       </c>
       <c r="T35" t="n">
-        <v>48.35392552487323</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>3.240768769771853</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>36.72376912801575</v>
+        <v>36.72376912801576</v>
       </c>
       <c r="L36" t="n">
         <v>116.3357429555019</v>
@@ -37476,7 +37476,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>37.91821650832126</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37491,7 +37491,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>37.91821650832125</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37537,28 +37537,28 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>29.16804800257523</v>
+        <v>29.16804800257512</v>
       </c>
       <c r="J38" t="n">
-        <v>192.5260368577364</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>110.5787154397684</v>
+        <v>261.7852793517536</v>
       </c>
       <c r="L38" t="n">
-        <v>44.22829935213097</v>
+        <v>89.53458688533128</v>
       </c>
       <c r="M38" t="n">
-        <v>78.38014095515221</v>
+        <v>263.7950660946999</v>
       </c>
       <c r="N38" t="n">
         <v>72.73686204740345</v>
       </c>
       <c r="O38" t="n">
-        <v>263.7950660946997</v>
+        <v>263.7950660946999</v>
       </c>
       <c r="P38" t="n">
-        <v>253.1087091204558</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37567,13 +37567,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>42.95697387321528</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>20.74999552024437</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>36.72376912801575</v>
+        <v>36.72376912801576</v>
       </c>
       <c r="L39" t="n">
         <v>116.3357429555019</v>
@@ -37692,7 +37692,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>37.91821650832102</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -37716,7 +37716,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>37.91821650832126</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,19 +37774,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-1.172395514004165e-13</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.576636251149</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>232.6172313491783</v>
+        <v>232.6172313491784</v>
       </c>
       <c r="L41" t="n">
-        <v>44.22829935213097</v>
+        <v>263.7950660946999</v>
       </c>
       <c r="M41" t="n">
-        <v>78.38014095515221</v>
+        <v>200.8450040350076</v>
       </c>
       <c r="N41" t="n">
         <v>72.73686204740345</v>
@@ -37795,19 +37795,19 @@
         <v>31.40117570345464</v>
       </c>
       <c r="P41" t="n">
-        <v>223.9406611178805</v>
+        <v>223.9406611178806</v>
       </c>
       <c r="Q41" t="n">
-        <v>149.993647166561</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>45.67242053407418</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>13.78892587064005</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>19.18587752229799</v>
+        <v>19.18587752229811</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>36.72376912801575</v>
+        <v>36.72376912801576</v>
       </c>
       <c r="L42" t="n">
         <v>116.3357429555019</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>62.95717542586929</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37956,16 +37956,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.20407597789344</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.92514612317649</v>
       </c>
       <c r="S43" t="n">
-        <v>6.149097149058802</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>17.93642939707634</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -37980,7 +37980,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.59271902501752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>163.3579888551612</v>
       </c>
       <c r="K44" t="n">
-        <v>232.6172313491784</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>108.1936182492355</v>
+        <v>44.2282993521309</v>
       </c>
       <c r="M44" t="n">
-        <v>78.38014095515219</v>
+        <v>263.7950660946999</v>
       </c>
       <c r="N44" t="n">
-        <v>72.73686204740341</v>
+        <v>263.7950660946999</v>
       </c>
       <c r="O44" t="n">
-        <v>263.7950660946997</v>
+        <v>263.7950660946999</v>
       </c>
       <c r="P44" t="n">
-        <v>223.9406611178806</v>
+        <v>26.364513856233</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>45.67242053407428</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>19.18587752229811</v>
+        <v>19.18587752229814</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>36.72376912801574</v>
+        <v>36.72376912801572</v>
       </c>
       <c r="L45" t="n">
         <v>116.3357429555019</v>
       </c>
       <c r="M45" t="n">
-        <v>180.9650563593529</v>
+        <v>180.9650563593528</v>
       </c>
       <c r="N45" t="n">
         <v>204.3606119803081</v>
@@ -38111,7 +38111,7 @@
         <v>130.639850673372</v>
       </c>
       <c r="P45" t="n">
-        <v>82.55050086481947</v>
+        <v>82.55050086481944</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6.318275199535584</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38169,7 +38169,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>76.62761695243371</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -38190,7 +38190,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>94.73322439998675</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -38199,10 +38199,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>6.149097149058941</v>
       </c>
       <c r="T46" t="n">
-        <v>17.93642939707645</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
